--- a/config/门店规格.xlsx
+++ b/config/门店规格.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>序号</t>
   </si>
@@ -118,13 +118,22 @@
     <t>中山东路</t>
   </si>
   <si>
-    <t>楚州万达</t>
+    <t>淮安楚州万达</t>
   </si>
   <si>
     <t>淮安楚秀园</t>
   </si>
   <si>
     <t>时尚莱迪广场</t>
+  </si>
+  <si>
+    <t>六合龙湖天街</t>
+  </si>
+  <si>
+    <t>六合龙湖永辉</t>
+  </si>
+  <si>
+    <t>禄口机场</t>
   </si>
   <si>
     <t>绝味鸭脖</t>
@@ -249,10 +258,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -294,7 +303,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,36 +311,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,9 +324,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,17 +340,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -406,11 +391,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -423,17 +439,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -452,7 +461,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,7 +497,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,13 +557,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,13 +569,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,49 +623,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,73 +641,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,54 +652,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -714,6 +675,69 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -728,21 +752,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -751,10 +760,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -766,130 +775,130 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1243,10 +1252,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AK42"/>
+  <dimension ref="A1:AN42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="A12" sqref="$A12:$XFD12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:AN2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1276,12 +1285,13 @@
     <col min="30" max="30" width="17.2222222222222" customWidth="1"/>
     <col min="31" max="31" width="14.8888888888889" customWidth="1"/>
     <col min="33" max="33" width="7.22222222222222" customWidth="1"/>
-    <col min="34" max="35" width="10.1111111111111" customWidth="1"/>
+    <col min="34" max="34" width="10.1111111111111" customWidth="1"/>
+    <col min="35" max="35" width="14.8888888888889" customWidth="1"/>
     <col min="36" max="36" width="12.5555555555556" customWidth="1"/>
-    <col min="37" max="37" width="14.8888888888889" customWidth="1"/>
+    <col min="37" max="39" width="14.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:37">
+    <row r="1" spans="3:40">
       <c r="C1" s="4">
         <v>1</v>
       </c>
@@ -1387,8 +1397,17 @@
       <c r="AK1">
         <v>35</v>
       </c>
+      <c r="AL1">
+        <v>36</v>
+      </c>
+      <c r="AM1">
+        <v>37</v>
+      </c>
+      <c r="AN1">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:37">
+    <row r="2" s="1" customFormat="1" spans="1:40">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1500,13 +1519,22 @@
       <c r="AK2" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="AL2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:40">
       <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1613,13 +1641,22 @@
       <c r="AK3">
         <v>2</v>
       </c>
+      <c r="AL3">
+        <v>2</v>
+      </c>
+      <c r="AM3">
+        <v>2</v>
+      </c>
+      <c r="AN3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:40">
       <c r="A4" s="6">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1726,13 +1763,22 @@
       <c r="AK4">
         <v>2</v>
       </c>
+      <c r="AL4">
+        <v>2</v>
+      </c>
+      <c r="AM4">
+        <v>2</v>
+      </c>
+      <c r="AN4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:40">
       <c r="A5" s="6">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C5">
         <v>1.5</v>
@@ -1839,13 +1885,22 @@
       <c r="AK5">
         <v>1.5</v>
       </c>
+      <c r="AL5">
+        <v>1.5</v>
+      </c>
+      <c r="AM5">
+        <v>1.5</v>
+      </c>
+      <c r="AN5">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:40">
       <c r="A6" s="6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C6">
         <v>0.5</v>
@@ -1952,13 +2007,22 @@
       <c r="AK6">
         <v>0.5</v>
       </c>
+      <c r="AL6">
+        <v>0.5</v>
+      </c>
+      <c r="AM6">
+        <v>0.5</v>
+      </c>
+      <c r="AN6">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:40">
       <c r="A7" s="6">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C7">
         <v>10</v>
@@ -2065,13 +2129,22 @@
       <c r="AK7">
         <v>10</v>
       </c>
+      <c r="AL7">
+        <v>10</v>
+      </c>
+      <c r="AM7">
+        <v>10</v>
+      </c>
+      <c r="AN7">
+        <v>10</v>
+      </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:40">
       <c r="A8" s="6">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C8">
         <v>0.5</v>
@@ -2178,13 +2251,22 @@
       <c r="AK8">
         <v>0.5</v>
       </c>
+      <c r="AL8">
+        <v>0.5</v>
+      </c>
+      <c r="AM8">
+        <v>0.5</v>
+      </c>
+      <c r="AN8">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:40">
       <c r="A9" s="6">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C9">
         <v>0.5</v>
@@ -2291,13 +2373,22 @@
       <c r="AK9">
         <v>0.5</v>
       </c>
+      <c r="AL9">
+        <v>0.5</v>
+      </c>
+      <c r="AM9">
+        <v>0.5</v>
+      </c>
+      <c r="AN9">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:40">
       <c r="A10" s="6">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C10" s="7">
         <v>1</v>
@@ -2404,13 +2495,22 @@
       <c r="AK10">
         <v>1</v>
       </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
+        <v>1</v>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:40">
       <c r="A11" s="6">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C11">
         <v>0.5</v>
@@ -2517,13 +2617,22 @@
       <c r="AK11">
         <v>0.5</v>
       </c>
+      <c r="AL11">
+        <v>0.5</v>
+      </c>
+      <c r="AM11">
+        <v>0.5</v>
+      </c>
+      <c r="AN11">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="12" s="2" customFormat="1" spans="1:37">
+    <row r="12" s="2" customFormat="1" spans="1:40">
       <c r="A12" s="8">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C12" s="2">
         <v>0.5</v>
@@ -2630,13 +2739,22 @@
       <c r="AK12" s="2">
         <v>0.5</v>
       </c>
+      <c r="AL12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AM12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AN12" s="2">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:40">
       <c r="A13" s="6">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2743,13 +2861,22 @@
       <c r="AK13">
         <v>1.5</v>
       </c>
+      <c r="AL13">
+        <v>1.5</v>
+      </c>
+      <c r="AM13">
+        <v>1.5</v>
+      </c>
+      <c r="AN13">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:40">
       <c r="A14" s="6">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2856,13 +2983,22 @@
       <c r="AK14">
         <v>1.5</v>
       </c>
+      <c r="AL14">
+        <v>1.5</v>
+      </c>
+      <c r="AM14">
+        <v>1.5</v>
+      </c>
+      <c r="AN14">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:40">
       <c r="A15" s="6">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C15">
         <v>0.5</v>
@@ -2969,13 +3105,22 @@
       <c r="AK15">
         <v>0.5</v>
       </c>
+      <c r="AL15">
+        <v>0.5</v>
+      </c>
+      <c r="AM15">
+        <v>0.5</v>
+      </c>
+      <c r="AN15">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:40">
       <c r="A16" s="6">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -3082,13 +3227,22 @@
       <c r="AK16">
         <v>1</v>
       </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
+        <v>1</v>
+      </c>
+      <c r="AN16">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:37">
+    <row r="17" spans="1:40">
       <c r="A17" s="6">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -3195,13 +3349,22 @@
       <c r="AK17">
         <v>1</v>
       </c>
+      <c r="AL17">
+        <v>1</v>
+      </c>
+      <c r="AM17">
+        <v>1</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:37">
+    <row r="18" spans="1:40">
       <c r="A18" s="6">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C18">
         <v>1.5</v>
@@ -3308,13 +3471,22 @@
       <c r="AK18">
         <v>1.5</v>
       </c>
+      <c r="AL18">
+        <v>1.5</v>
+      </c>
+      <c r="AM18">
+        <v>1.5</v>
+      </c>
+      <c r="AN18">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="19" spans="1:37">
+    <row r="19" spans="1:40">
       <c r="A19" s="6">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C19">
         <v>0.25</v>
@@ -3421,13 +3593,22 @@
       <c r="AK19">
         <v>0.5</v>
       </c>
+      <c r="AL19">
+        <v>0.5</v>
+      </c>
+      <c r="AM19">
+        <v>0.5</v>
+      </c>
+      <c r="AN19">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" spans="1:40">
       <c r="A20" s="6">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C20">
         <v>0.5</v>
@@ -3534,13 +3715,22 @@
       <c r="AK20">
         <v>0.5</v>
       </c>
+      <c r="AL20">
+        <v>0.5</v>
+      </c>
+      <c r="AM20">
+        <v>0.5</v>
+      </c>
+      <c r="AN20">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="21" spans="1:37">
+    <row r="21" spans="1:40">
       <c r="A21" s="6">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C21">
         <v>0.75</v>
@@ -3647,13 +3837,22 @@
       <c r="AK21">
         <v>0.75</v>
       </c>
+      <c r="AL21">
+        <v>0.75</v>
+      </c>
+      <c r="AM21">
+        <v>0.75</v>
+      </c>
+      <c r="AN21">
+        <v>0.75</v>
+      </c>
     </row>
-    <row r="22" spans="1:37">
+    <row r="22" spans="1:40">
       <c r="A22" s="6">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -3760,13 +3959,22 @@
       <c r="AK22">
         <v>1.5</v>
       </c>
+      <c r="AL22">
+        <v>1.5</v>
+      </c>
+      <c r="AM22">
+        <v>1.5</v>
+      </c>
+      <c r="AN22">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="23" spans="1:37">
+    <row r="23" spans="1:40">
       <c r="A23" s="6">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C23" s="7">
         <v>0.75</v>
@@ -3873,13 +4081,22 @@
       <c r="AK23">
         <v>0.75</v>
       </c>
+      <c r="AL23">
+        <v>0.75</v>
+      </c>
+      <c r="AM23">
+        <v>0.75</v>
+      </c>
+      <c r="AN23">
+        <v>0.75</v>
+      </c>
     </row>
-    <row r="24" spans="1:37">
+    <row r="24" spans="1:40">
       <c r="A24" s="6">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C24">
         <v>0.5</v>
@@ -3986,13 +4203,22 @@
       <c r="AK24">
         <v>0.5</v>
       </c>
+      <c r="AL24">
+        <v>0.5</v>
+      </c>
+      <c r="AM24">
+        <v>0.5</v>
+      </c>
+      <c r="AN24">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="25" spans="1:37">
+    <row r="25" spans="1:40">
       <c r="A25" s="6">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -4099,13 +4325,22 @@
       <c r="AK25">
         <v>1</v>
       </c>
+      <c r="AL25">
+        <v>1</v>
+      </c>
+      <c r="AM25">
+        <v>1</v>
+      </c>
+      <c r="AN25">
+        <v>1</v>
+      </c>
     </row>
-    <row r="26" spans="1:37">
+    <row r="26" spans="1:40">
       <c r="A26" s="6">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -4212,13 +4447,22 @@
       <c r="AK26">
         <v>1</v>
       </c>
+      <c r="AL26">
+        <v>1</v>
+      </c>
+      <c r="AM26">
+        <v>1</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="27" spans="1:37">
+    <row r="27" spans="1:40">
       <c r="A27" s="6">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C27">
         <v>1.5</v>
@@ -4325,13 +4569,22 @@
       <c r="AK27">
         <v>2</v>
       </c>
+      <c r="AL27">
+        <v>2</v>
+      </c>
+      <c r="AM27">
+        <v>2</v>
+      </c>
+      <c r="AN27">
+        <v>2</v>
+      </c>
     </row>
-    <row r="28" spans="1:37">
+    <row r="28" spans="1:40">
       <c r="A28" s="6">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -4438,13 +4691,22 @@
       <c r="AK28">
         <v>2</v>
       </c>
+      <c r="AL28">
+        <v>2</v>
+      </c>
+      <c r="AM28">
+        <v>2</v>
+      </c>
+      <c r="AN28">
+        <v>2</v>
+      </c>
     </row>
-    <row r="29" spans="1:37">
+    <row r="29" spans="1:40">
       <c r="A29" s="6">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C29">
         <v>1.5</v>
@@ -4551,13 +4813,22 @@
       <c r="AK29">
         <v>1.5</v>
       </c>
+      <c r="AL29">
+        <v>1.5</v>
+      </c>
+      <c r="AM29">
+        <v>1.5</v>
+      </c>
+      <c r="AN29">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="30" spans="1:37">
+    <row r="30" spans="1:40">
       <c r="A30" s="6">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C30">
         <v>10</v>
@@ -4664,13 +4935,22 @@
       <c r="AK30">
         <v>10</v>
       </c>
+      <c r="AL30">
+        <v>10</v>
+      </c>
+      <c r="AM30">
+        <v>10</v>
+      </c>
+      <c r="AN30">
+        <v>10</v>
+      </c>
     </row>
-    <row r="31" spans="1:37">
+    <row r="31" spans="1:40">
       <c r="A31" s="6">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -4777,13 +5057,22 @@
       <c r="AK31">
         <v>1.5</v>
       </c>
+      <c r="AL31">
+        <v>1.5</v>
+      </c>
+      <c r="AM31">
+        <v>1.5</v>
+      </c>
+      <c r="AN31">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="32" spans="1:37">
+    <row r="32" spans="1:40">
       <c r="A32" s="6">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C32">
         <v>0.5</v>
@@ -4890,13 +5179,22 @@
       <c r="AK32">
         <v>0.5</v>
       </c>
+      <c r="AL32">
+        <v>0.5</v>
+      </c>
+      <c r="AM32">
+        <v>0.5</v>
+      </c>
+      <c r="AN32">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="33" spans="1:37">
+    <row r="33" spans="1:40">
       <c r="A33" s="6">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -5003,13 +5301,22 @@
       <c r="AK33">
         <v>1.5</v>
       </c>
+      <c r="AL33">
+        <v>1.5</v>
+      </c>
+      <c r="AM33">
+        <v>1.5</v>
+      </c>
+      <c r="AN33">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="34" spans="1:37">
+    <row r="34" spans="1:40">
       <c r="A34" s="6">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C34">
         <v>0.15</v>
@@ -5116,13 +5423,22 @@
       <c r="AK34">
         <v>0.15</v>
       </c>
+      <c r="AL34">
+        <v>0.15</v>
+      </c>
+      <c r="AM34">
+        <v>0.15</v>
+      </c>
+      <c r="AN34">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="35" spans="1:37">
+    <row r="35" spans="1:40">
       <c r="A35" s="6">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C35">
         <v>0.15</v>
@@ -5229,13 +5545,22 @@
       <c r="AK35">
         <v>0.15</v>
       </c>
+      <c r="AL35">
+        <v>0.15</v>
+      </c>
+      <c r="AM35">
+        <v>0.15</v>
+      </c>
+      <c r="AN35">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="36" spans="1:37">
+    <row r="36" spans="1:40">
       <c r="A36" s="6">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -5342,13 +5667,22 @@
       <c r="AK36">
         <v>1</v>
       </c>
+      <c r="AL36">
+        <v>1</v>
+      </c>
+      <c r="AM36">
+        <v>1</v>
+      </c>
+      <c r="AN36">
+        <v>1</v>
+      </c>
     </row>
-    <row r="37" spans="1:37">
+    <row r="37" spans="1:40">
       <c r="A37" s="6">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C37">
         <v>0.5</v>
@@ -5455,13 +5789,22 @@
       <c r="AK37">
         <v>0.5</v>
       </c>
+      <c r="AL37">
+        <v>0.5</v>
+      </c>
+      <c r="AM37">
+        <v>0.5</v>
+      </c>
+      <c r="AN37">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="38" spans="1:37">
+    <row r="38" spans="1:40">
       <c r="A38" s="6">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -5568,13 +5911,22 @@
       <c r="AK38">
         <v>1</v>
       </c>
+      <c r="AL38">
+        <v>1</v>
+      </c>
+      <c r="AM38">
+        <v>1</v>
+      </c>
+      <c r="AN38">
+        <v>1</v>
+      </c>
     </row>
-    <row r="39" spans="1:37">
+    <row r="39" spans="1:40">
       <c r="A39" s="6">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C39">
         <v>0.5</v>
@@ -5681,13 +6033,22 @@
       <c r="AK39">
         <v>0.5</v>
       </c>
+      <c r="AL39">
+        <v>0.5</v>
+      </c>
+      <c r="AM39">
+        <v>0.5</v>
+      </c>
+      <c r="AN39">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="40" s="2" customFormat="1" spans="1:37">
+    <row r="40" s="2" customFormat="1" spans="1:40">
       <c r="A40" s="8">
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C40" s="2">
         <v>0.75</v>
@@ -5794,17 +6155,26 @@
       <c r="AK40" s="2">
         <v>0.75</v>
       </c>
+      <c r="AL40" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="AM40" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="AN40" s="2">
+        <v>0.75</v>
+      </c>
     </row>
-    <row r="41" spans="2:37">
+    <row r="41" spans="2:40">
       <c r="B41" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C41" s="9">
         <f>SUM(C3:C40)</f>
         <v>52.3</v>
       </c>
       <c r="D41" s="9">
-        <f t="shared" ref="D41:AK41" si="0">SUM(D3:D40)</f>
+        <f t="shared" ref="D41:AM41" si="0">SUM(D3:D40)</f>
         <v>52.55</v>
       </c>
       <c r="E41" s="9">
@@ -5939,8 +6309,20 @@
         <f t="shared" si="0"/>
         <v>55.55</v>
       </c>
+      <c r="AL41" s="9">
+        <f t="shared" si="0"/>
+        <v>55.55</v>
+      </c>
+      <c r="AM41" s="9">
+        <f t="shared" si="0"/>
+        <v>55.55</v>
+      </c>
+      <c r="AN41" s="9">
+        <f>SUM(AN3:AN40)</f>
+        <v>55.55</v>
+      </c>
     </row>
-    <row r="42" spans="3:37">
+    <row r="42" spans="3:40">
       <c r="C42" t="str">
         <f>IF(C41=52.3,"小",IF(C41=52.55,"中",IF(C41=55.55,"大","错误")))</f>
         <v>小</v>
@@ -5958,7 +6340,7 @@
         <v>小</v>
       </c>
       <c r="G42" t="str">
-        <f t="shared" ref="G42:AK42" si="1">IF(G41=52.3,"小",IF(G41=52.55,"中",IF(G41=55.55,"大","错误")))</f>
+        <f t="shared" ref="G42:AM42" si="1">IF(G41=52.3,"小",IF(G41=52.55,"中",IF(G41=55.55,"大","错误")))</f>
         <v>大</v>
       </c>
       <c r="H42" t="str">
@@ -6079,6 +6461,18 @@
       </c>
       <c r="AK42" t="str">
         <f t="shared" si="1"/>
+        <v>大</v>
+      </c>
+      <c r="AL42" t="str">
+        <f t="shared" si="1"/>
+        <v>大</v>
+      </c>
+      <c r="AM42" t="str">
+        <f t="shared" si="1"/>
+        <v>大</v>
+      </c>
+      <c r="AN42" t="str">
+        <f>IF(AN41=52.3,"小",IF(AN41=52.55,"中",IF(AN41=55.55,"大","错误")))</f>
         <v>大</v>
       </c>
     </row>

--- a/config/门店规格.xlsx
+++ b/config/门店规格.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>序号</t>
   </si>
@@ -37,9 +37,6 @@
     <t>丰石路</t>
   </si>
   <si>
-    <t>工业大学</t>
-  </si>
-  <si>
     <t>江宁大司口</t>
   </si>
   <si>
@@ -103,12 +100,6 @@
     <t>淮安花漾城</t>
   </si>
   <si>
-    <t>淮安旺角大学城</t>
-  </si>
-  <si>
-    <t>淮安苏宁广场</t>
-  </si>
-  <si>
     <t>保利樾</t>
   </si>
   <si>
@@ -163,9 +154,6 @@
     <t>鸭肠</t>
   </si>
   <si>
-    <t>虾球</t>
-  </si>
-  <si>
     <t>鸭爪</t>
   </si>
   <si>
@@ -247,7 +235,7 @@
     <t>藤椒鸡翅尖</t>
   </si>
   <si>
-    <t>藤椒鸭小肚</t>
+    <t>饮料</t>
   </si>
   <si>
     <t>合计</t>
@@ -258,8 +246,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -303,14 +291,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,6 +327,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -339,8 +343,31 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,7 +375,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,14 +396,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,58 +426,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -467,13 +455,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,13 +485,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,31 +527,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,7 +545,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,55 +563,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,25 +605,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,19 +646,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -705,39 +706,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -752,6 +720,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -760,10 +748,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -772,137 +760,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -926,9 +914,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1252,10 +1237,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AN42"/>
+  <dimension ref="A1:AK41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:AN2"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1266,32 +1251,29 @@
     <col min="4" max="4" width="12.5555555555556" customWidth="1"/>
     <col min="5" max="5" width="10.1111111111111" customWidth="1"/>
     <col min="6" max="7" width="8" customWidth="1"/>
-    <col min="8" max="8" width="10.1111111111111" customWidth="1"/>
-    <col min="9" max="10" width="12.5555555555556" customWidth="1"/>
-    <col min="11" max="11" width="14.8888888888889" customWidth="1"/>
-    <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="10.1111111111111" customWidth="1"/>
-    <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="15" max="15" width="7.22222222222222" customWidth="1"/>
-    <col min="16" max="17" width="10.1111111111111" customWidth="1"/>
-    <col min="18" max="19" width="8" customWidth="1"/>
-    <col min="20" max="22" width="10.1111111111111" customWidth="1"/>
-    <col min="23" max="23" width="17.2222222222222" customWidth="1"/>
-    <col min="24" max="24" width="10.1111111111111" customWidth="1"/>
-    <col min="25" max="25" width="8" customWidth="1"/>
-    <col min="26" max="26" width="10.1111111111111" customWidth="1"/>
-    <col min="27" max="28" width="14.8888888888889" customWidth="1"/>
-    <col min="29" max="29" width="12.5555555555556" customWidth="1"/>
-    <col min="30" max="30" width="17.2222222222222" customWidth="1"/>
-    <col min="31" max="31" width="14.8888888888889" customWidth="1"/>
-    <col min="33" max="33" width="7.22222222222222" customWidth="1"/>
-    <col min="34" max="34" width="10.1111111111111" customWidth="1"/>
-    <col min="35" max="35" width="14.8888888888889" customWidth="1"/>
-    <col min="36" max="36" width="12.5555555555556" customWidth="1"/>
-    <col min="37" max="39" width="14.8888888888889" customWidth="1"/>
+    <col min="8" max="9" width="12.5555555555556" customWidth="1"/>
+    <col min="10" max="10" width="14.8888888888889" customWidth="1"/>
+    <col min="11" max="11" width="8" customWidth="1"/>
+    <col min="12" max="12" width="10.1111111111111" customWidth="1"/>
+    <col min="13" max="13" width="8" customWidth="1"/>
+    <col min="14" max="14" width="7.22222222222222" customWidth="1"/>
+    <col min="15" max="16" width="10.1111111111111" customWidth="1"/>
+    <col min="17" max="18" width="8" customWidth="1"/>
+    <col min="19" max="21" width="10.1111111111111" customWidth="1"/>
+    <col min="22" max="22" width="17.2222222222222" customWidth="1"/>
+    <col min="23" max="23" width="10.1111111111111" customWidth="1"/>
+    <col min="24" max="24" width="8" customWidth="1"/>
+    <col min="25" max="25" width="10.1111111111111" customWidth="1"/>
+    <col min="26" max="27" width="14.8888888888889" customWidth="1"/>
+    <col min="28" max="28" width="12.5555555555556" customWidth="1"/>
+    <col min="30" max="30" width="7.22222222222222" customWidth="1"/>
+    <col min="31" max="31" width="10.1111111111111" customWidth="1"/>
+    <col min="32" max="32" width="14.8888888888889" customWidth="1"/>
+    <col min="33" max="33" width="12.5555555555556" customWidth="1"/>
+    <col min="34" max="36" width="14.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:40">
+    <row r="1" spans="3:37">
       <c r="C1" s="4">
         <v>1</v>
       </c>
@@ -1385,29 +1367,20 @@
       <c r="AG1" s="4">
         <v>31</v>
       </c>
-      <c r="AH1">
+      <c r="AH1" s="4">
         <v>32</v>
       </c>
-      <c r="AI1">
+      <c r="AI1" s="4">
         <v>33</v>
       </c>
-      <c r="AJ1">
+      <c r="AJ1" s="4">
         <v>34</v>
       </c>
-      <c r="AK1">
+      <c r="AK1" s="4">
         <v>35</v>
       </c>
-      <c r="AL1">
-        <v>36</v>
-      </c>
-      <c r="AM1">
-        <v>37</v>
-      </c>
-      <c r="AN1">
-        <v>38</v>
-      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:40">
+    <row r="2" s="1" customFormat="1" spans="1:37">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1519,266 +1492,239 @@
       <c r="AK2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:37">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>37</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
+      <c r="T3">
+        <v>2</v>
+      </c>
+      <c r="U3">
+        <v>2</v>
+      </c>
+      <c r="V3">
+        <v>2</v>
+      </c>
+      <c r="W3">
+        <v>2</v>
+      </c>
+      <c r="X3">
+        <v>2</v>
+      </c>
+      <c r="Y3">
+        <v>2</v>
+      </c>
+      <c r="Z3">
+        <v>2</v>
+      </c>
+      <c r="AA3">
+        <v>2</v>
+      </c>
+      <c r="AB3">
+        <v>2</v>
+      </c>
+      <c r="AC3">
+        <v>2</v>
+      </c>
+      <c r="AD3">
+        <v>2</v>
+      </c>
+      <c r="AE3">
+        <v>2</v>
+      </c>
+      <c r="AF3">
+        <v>2</v>
+      </c>
+      <c r="AG3">
+        <v>2</v>
+      </c>
+      <c r="AH3">
+        <v>2</v>
+      </c>
+      <c r="AI3">
+        <v>2</v>
+      </c>
+      <c r="AJ3">
+        <v>2</v>
+      </c>
+      <c r="AK3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>38</v>
       </c>
-      <c r="AN2" s="1" t="s">
-        <v>39</v>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <v>2</v>
+      </c>
+      <c r="T4">
+        <v>2</v>
+      </c>
+      <c r="U4">
+        <v>2</v>
+      </c>
+      <c r="V4">
+        <v>2</v>
+      </c>
+      <c r="W4">
+        <v>2</v>
+      </c>
+      <c r="X4">
+        <v>2</v>
+      </c>
+      <c r="Y4">
+        <v>2</v>
+      </c>
+      <c r="Z4">
+        <v>2</v>
+      </c>
+      <c r="AA4">
+        <v>2</v>
+      </c>
+      <c r="AB4">
+        <v>2</v>
+      </c>
+      <c r="AC4">
+        <v>2</v>
+      </c>
+      <c r="AD4">
+        <v>2</v>
+      </c>
+      <c r="AE4">
+        <v>2</v>
+      </c>
+      <c r="AF4">
+        <v>2</v>
+      </c>
+      <c r="AG4">
+        <v>2</v>
+      </c>
+      <c r="AH4">
+        <v>2</v>
+      </c>
+      <c r="AI4">
+        <v>2</v>
+      </c>
+      <c r="AJ4">
+        <v>2</v>
+      </c>
+      <c r="AK4">
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" s="6">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3">
-        <v>2</v>
-      </c>
-      <c r="M3">
-        <v>2</v>
-      </c>
-      <c r="N3">
-        <v>2</v>
-      </c>
-      <c r="O3">
-        <v>2</v>
-      </c>
-      <c r="P3">
-        <v>2</v>
-      </c>
-      <c r="Q3">
-        <v>2</v>
-      </c>
-      <c r="R3">
-        <v>2</v>
-      </c>
-      <c r="S3">
-        <v>2</v>
-      </c>
-      <c r="T3">
-        <v>2</v>
-      </c>
-      <c r="U3">
-        <v>2</v>
-      </c>
-      <c r="V3">
-        <v>2</v>
-      </c>
-      <c r="W3">
-        <v>2</v>
-      </c>
-      <c r="X3">
-        <v>2</v>
-      </c>
-      <c r="Y3">
-        <v>2</v>
-      </c>
-      <c r="Z3">
-        <v>2</v>
-      </c>
-      <c r="AA3">
-        <v>2</v>
-      </c>
-      <c r="AB3">
-        <v>2</v>
-      </c>
-      <c r="AC3">
-        <v>2</v>
-      </c>
-      <c r="AD3">
-        <v>2</v>
-      </c>
-      <c r="AE3">
-        <v>2</v>
-      </c>
-      <c r="AF3">
-        <v>2</v>
-      </c>
-      <c r="AG3">
-        <v>2</v>
-      </c>
-      <c r="AH3">
-        <v>2</v>
-      </c>
-      <c r="AI3">
-        <v>2</v>
-      </c>
-      <c r="AJ3">
-        <v>2</v>
-      </c>
-      <c r="AK3">
-        <v>2</v>
-      </c>
-      <c r="AL3">
-        <v>2</v>
-      </c>
-      <c r="AM3">
-        <v>2</v>
-      </c>
-      <c r="AN3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40">
-      <c r="A4" s="6">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>2</v>
-      </c>
-      <c r="M4">
-        <v>2</v>
-      </c>
-      <c r="N4">
-        <v>2</v>
-      </c>
-      <c r="O4">
-        <v>2</v>
-      </c>
-      <c r="P4">
-        <v>2</v>
-      </c>
-      <c r="Q4">
-        <v>2</v>
-      </c>
-      <c r="R4">
-        <v>2</v>
-      </c>
-      <c r="S4">
-        <v>2</v>
-      </c>
-      <c r="T4">
-        <v>2</v>
-      </c>
-      <c r="U4">
-        <v>2</v>
-      </c>
-      <c r="V4">
-        <v>2</v>
-      </c>
-      <c r="W4">
-        <v>2</v>
-      </c>
-      <c r="X4">
-        <v>2</v>
-      </c>
-      <c r="Y4">
-        <v>2</v>
-      </c>
-      <c r="Z4">
-        <v>2</v>
-      </c>
-      <c r="AA4">
-        <v>2</v>
-      </c>
-      <c r="AB4">
-        <v>2</v>
-      </c>
-      <c r="AC4">
-        <v>2</v>
-      </c>
-      <c r="AD4">
-        <v>2</v>
-      </c>
-      <c r="AE4">
-        <v>2</v>
-      </c>
-      <c r="AF4">
-        <v>2</v>
-      </c>
-      <c r="AG4">
-        <v>2</v>
-      </c>
-      <c r="AH4">
-        <v>2</v>
-      </c>
-      <c r="AI4">
-        <v>2</v>
-      </c>
-      <c r="AJ4">
-        <v>2</v>
-      </c>
-      <c r="AK4">
-        <v>2</v>
-      </c>
-      <c r="AL4">
-        <v>2</v>
-      </c>
-      <c r="AM4">
-        <v>2</v>
-      </c>
-      <c r="AN4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:37">
       <c r="A5" s="6">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C5">
         <v>1.5</v>
@@ -1885,22 +1831,13 @@
       <c r="AK5">
         <v>1.5</v>
       </c>
-      <c r="AL5">
-        <v>1.5</v>
-      </c>
-      <c r="AM5">
-        <v>1.5</v>
-      </c>
-      <c r="AN5">
-        <v>1.5</v>
-      </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:37">
       <c r="A6" s="6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C6">
         <v>0.5</v>
@@ -2007,22 +1944,13 @@
       <c r="AK6">
         <v>0.5</v>
       </c>
-      <c r="AL6">
-        <v>0.5</v>
-      </c>
-      <c r="AM6">
-        <v>0.5</v>
-      </c>
-      <c r="AN6">
-        <v>0.5</v>
-      </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:37">
       <c r="A7" s="6">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C7">
         <v>10</v>
@@ -2129,22 +2057,13 @@
       <c r="AK7">
         <v>10</v>
       </c>
-      <c r="AL7">
-        <v>10</v>
-      </c>
-      <c r="AM7">
-        <v>10</v>
-      </c>
-      <c r="AN7">
-        <v>10</v>
-      </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:37">
       <c r="A8" s="6">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C8">
         <v>0.5</v>
@@ -2251,22 +2170,13 @@
       <c r="AK8">
         <v>0.5</v>
       </c>
-      <c r="AL8">
-        <v>0.5</v>
-      </c>
-      <c r="AM8">
-        <v>0.5</v>
-      </c>
-      <c r="AN8">
-        <v>0.5</v>
-      </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:37">
       <c r="A9" s="6">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C9">
         <v>0.5</v>
@@ -2373,22 +2283,13 @@
       <c r="AK9">
         <v>0.5</v>
       </c>
-      <c r="AL9">
-        <v>0.5</v>
-      </c>
-      <c r="AM9">
-        <v>0.5</v>
-      </c>
-      <c r="AN9">
-        <v>0.5</v>
-      </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:37">
       <c r="A10" s="6">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C10" s="7">
         <v>1</v>
@@ -2483,34 +2384,25 @@
       <c r="AG10" s="7">
         <v>1</v>
       </c>
-      <c r="AH10">
-        <v>1</v>
-      </c>
-      <c r="AI10">
-        <v>1</v>
-      </c>
-      <c r="AJ10">
-        <v>1</v>
-      </c>
-      <c r="AK10">
-        <v>1</v>
-      </c>
-      <c r="AL10">
-        <v>1</v>
-      </c>
-      <c r="AM10">
-        <v>1</v>
-      </c>
-      <c r="AN10">
+      <c r="AH10" s="7">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:37">
       <c r="A11" s="6">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C11">
         <v>0.5</v>
@@ -2617,162 +2509,144 @@
       <c r="AK11">
         <v>0.5</v>
       </c>
-      <c r="AL11">
-        <v>0.5</v>
-      </c>
-      <c r="AM11">
-        <v>0.5</v>
-      </c>
-      <c r="AN11">
-        <v>0.5</v>
-      </c>
     </row>
-    <row r="12" s="2" customFormat="1" spans="1:40">
-      <c r="A12" s="8">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="K12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="O12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="P12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="R12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="S12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="T12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="U12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="V12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="W12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="X12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Y12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Z12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AA12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AB12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AC12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AD12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AE12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AF12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AG12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AH12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AI12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AJ12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AK12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AL12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AM12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AN12" s="2">
-        <v>0.5</v>
+    <row r="12" spans="1:37">
+      <c r="A12" s="6">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12">
+        <v>1.5</v>
+      </c>
+      <c r="D12">
+        <v>1.5</v>
+      </c>
+      <c r="E12">
+        <v>1.5</v>
+      </c>
+      <c r="F12">
+        <v>1.5</v>
+      </c>
+      <c r="G12">
+        <v>1.5</v>
+      </c>
+      <c r="H12">
+        <v>1.5</v>
+      </c>
+      <c r="I12">
+        <v>1.5</v>
+      </c>
+      <c r="J12">
+        <v>1.5</v>
+      </c>
+      <c r="K12">
+        <v>1.5</v>
+      </c>
+      <c r="L12">
+        <v>1.5</v>
+      </c>
+      <c r="M12">
+        <v>1.5</v>
+      </c>
+      <c r="N12">
+        <v>1.5</v>
+      </c>
+      <c r="O12">
+        <v>1.5</v>
+      </c>
+      <c r="P12">
+        <v>1.5</v>
+      </c>
+      <c r="Q12">
+        <v>1.5</v>
+      </c>
+      <c r="R12">
+        <v>1.5</v>
+      </c>
+      <c r="S12">
+        <v>1.5</v>
+      </c>
+      <c r="T12">
+        <v>1.5</v>
+      </c>
+      <c r="U12">
+        <v>1.5</v>
+      </c>
+      <c r="V12">
+        <v>1.5</v>
+      </c>
+      <c r="W12">
+        <v>1.5</v>
+      </c>
+      <c r="X12">
+        <v>1.5</v>
+      </c>
+      <c r="Y12">
+        <v>1.5</v>
+      </c>
+      <c r="Z12">
+        <v>1.5</v>
+      </c>
+      <c r="AA12">
+        <v>1.5</v>
+      </c>
+      <c r="AB12">
+        <v>1.5</v>
+      </c>
+      <c r="AC12">
+        <v>1.5</v>
+      </c>
+      <c r="AD12">
+        <v>1.5</v>
+      </c>
+      <c r="AE12">
+        <v>1.5</v>
+      </c>
+      <c r="AF12">
+        <v>1.5</v>
+      </c>
+      <c r="AG12">
+        <v>1.5</v>
+      </c>
+      <c r="AH12">
+        <v>1.5</v>
+      </c>
+      <c r="AI12">
+        <v>1.5</v>
+      </c>
+      <c r="AJ12">
+        <v>1.5</v>
+      </c>
+      <c r="AK12">
+        <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:37">
       <c r="A13" s="6">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E13">
         <v>1.5</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G13">
         <v>1.5</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I13">
         <v>1.5</v>
@@ -2784,67 +2658,67 @@
         <v>1.5</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="N13">
         <v>1.5</v>
       </c>
       <c r="O13">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="P13">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="Q13">
         <v>1.5</v>
       </c>
       <c r="R13">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="S13">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="T13">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="U13">
         <v>1.5</v>
       </c>
       <c r="V13">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="W13">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="X13">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="Y13">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="Z13">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AA13">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AB13">
         <v>1.5</v>
       </c>
       <c r="AC13">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AD13">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AE13">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AF13">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AG13">
         <v>1.5</v>
@@ -2856,271 +2730,244 @@
         <v>1.5</v>
       </c>
       <c r="AJ13">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AK13">
         <v>1.5</v>
       </c>
-      <c r="AL13">
-        <v>1.5</v>
-      </c>
-      <c r="AM13">
-        <v>1.5</v>
-      </c>
-      <c r="AN13">
-        <v>1.5</v>
-      </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:37">
       <c r="A14" s="6">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E14">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G14">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I14">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="J14">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="K14">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N14">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="O14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q14">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="T14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U14">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="V14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="W14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Y14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Z14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AA14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AB14">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AC14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AD14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AE14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AF14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AG14">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AH14">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AI14">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AJ14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AK14">
-        <v>1.5</v>
-      </c>
-      <c r="AL14">
-        <v>1.5</v>
-      </c>
-      <c r="AM14">
-        <v>1.5</v>
-      </c>
-      <c r="AN14">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:37">
       <c r="A15" s="6">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="W15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="X15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Y15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Z15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AA15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AB15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AC15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AD15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AE15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AF15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AG15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AH15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AI15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AJ15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AK15">
-        <v>0.5</v>
-      </c>
-      <c r="AL15">
-        <v>0.5</v>
-      </c>
-      <c r="AM15">
-        <v>0.5</v>
-      </c>
-      <c r="AN15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:37">
       <c r="A16" s="6">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -3227,269 +3074,242 @@
       <c r="AK16">
         <v>1</v>
       </c>
-      <c r="AL16">
-        <v>1</v>
-      </c>
-      <c r="AM16">
-        <v>1</v>
-      </c>
-      <c r="AN16">
-        <v>1</v>
-      </c>
     </row>
-    <row r="17" spans="1:40">
+    <row r="17" spans="1:37">
       <c r="A17" s="6">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="O17">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="P17">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="Q17">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="R17">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="S17">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="T17">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="U17">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="V17">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="W17">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="X17">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="Y17">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="Z17">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AA17">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AB17">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AC17">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AD17">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AE17">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AF17">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AG17">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AH17">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AI17">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AJ17">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AK17">
-        <v>1</v>
-      </c>
-      <c r="AL17">
-        <v>1</v>
-      </c>
-      <c r="AM17">
-        <v>1</v>
-      </c>
-      <c r="AN17">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
+    <row r="18" spans="1:37">
       <c r="A18" s="6">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C18">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="D18">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="E18">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="F18">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="G18">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="H18">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="I18">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="J18">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="K18">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="L18">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="M18">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="N18">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="O18">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="P18">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q18">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R18">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="S18">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="T18">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="U18">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="V18">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="W18">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="X18">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="Y18">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="Z18">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="AA18">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="AB18">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="AC18">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="AD18">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="AE18">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="AF18">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="AG18">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="AH18">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="AI18">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="AJ18">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="AK18">
-        <v>1.5</v>
-      </c>
-      <c r="AL18">
-        <v>1.5</v>
-      </c>
-      <c r="AM18">
-        <v>1.5</v>
-      </c>
-      <c r="AN18">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
+    <row r="19" spans="1:37">
       <c r="A19" s="6">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C19">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D19">
         <v>0.5</v>
@@ -3498,13 +3318,13 @@
         <v>0.5</v>
       </c>
       <c r="F19">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G19">
         <v>0.5</v>
       </c>
       <c r="H19">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="I19">
         <v>0.5</v>
@@ -3516,10 +3336,10 @@
         <v>0.5</v>
       </c>
       <c r="L19">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="M19">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="N19">
         <v>0.5</v>
@@ -3528,55 +3348,55 @@
         <v>0.5</v>
       </c>
       <c r="P19">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q19">
         <v>0.5</v>
       </c>
       <c r="R19">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S19">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="T19">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="U19">
         <v>0.5</v>
       </c>
       <c r="V19">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="W19">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="X19">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Y19">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Z19">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AA19">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AB19">
         <v>0.5</v>
       </c>
       <c r="AC19">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AD19">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AE19">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AF19">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AG19">
         <v>0.5</v>
@@ -3588,637 +3408,583 @@
         <v>0.5</v>
       </c>
       <c r="AJ19">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AK19">
         <v>0.5</v>
       </c>
-      <c r="AL19">
-        <v>0.5</v>
-      </c>
-      <c r="AM19">
-        <v>0.5</v>
-      </c>
-      <c r="AN19">
-        <v>0.5</v>
-      </c>
     </row>
-    <row r="20" spans="1:40">
+    <row r="20" spans="1:37">
       <c r="A20" s="6">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C20">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D20">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="E20">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G20">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="H20">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="I20">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="J20">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K20">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="L20">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="M20">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="N20">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="O20">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="P20">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q20">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R20">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="S20">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="T20">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="U20">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="V20">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="W20">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="X20">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Y20">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Z20">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AA20">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AB20">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AC20">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AD20">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AE20">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AF20">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AG20">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AH20">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AI20">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AJ20">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AK20">
-        <v>0.5</v>
-      </c>
-      <c r="AL20">
-        <v>0.5</v>
-      </c>
-      <c r="AM20">
-        <v>0.5</v>
-      </c>
-      <c r="AN20">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
+    <row r="21" spans="1:37">
       <c r="A21" s="6">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C21">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="D21">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="E21">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="F21">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="G21">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="H21">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="I21">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="J21">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="K21">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="L21">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="M21">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="N21">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="O21">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="P21">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="Q21">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R21">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="S21">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="T21">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="U21">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="V21">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="W21">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="X21">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="Y21">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="Z21">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AA21">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AB21">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AC21">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AD21">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AE21">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AF21">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AG21">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AH21">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AI21">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AJ21">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AK21">
-        <v>0.75</v>
-      </c>
-      <c r="AL21">
-        <v>0.75</v>
-      </c>
-      <c r="AM21">
-        <v>0.75</v>
-      </c>
-      <c r="AN21">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
+    <row r="22" spans="1:37">
       <c r="A22" s="6">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>1.5</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1.5</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>1.5</v>
-      </c>
-      <c r="J22">
-        <v>1.5</v>
-      </c>
-      <c r="K22">
-        <v>1.5</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
-      <c r="N22">
-        <v>1.5</v>
-      </c>
-      <c r="O22">
-        <v>1</v>
-      </c>
-      <c r="P22">
-        <v>1</v>
-      </c>
-      <c r="Q22">
-        <v>1.5</v>
-      </c>
-      <c r="R22">
-        <v>1</v>
-      </c>
-      <c r="S22">
-        <v>1</v>
-      </c>
-      <c r="T22">
-        <v>1</v>
-      </c>
-      <c r="U22">
-        <v>1.5</v>
-      </c>
-      <c r="V22">
-        <v>1</v>
-      </c>
-      <c r="W22">
-        <v>1</v>
-      </c>
-      <c r="X22">
-        <v>1</v>
-      </c>
-      <c r="Y22">
-        <v>1</v>
-      </c>
-      <c r="Z22">
-        <v>1</v>
-      </c>
-      <c r="AA22">
-        <v>1</v>
-      </c>
-      <c r="AB22">
-        <v>1.5</v>
-      </c>
-      <c r="AC22">
-        <v>1</v>
-      </c>
-      <c r="AD22">
-        <v>1</v>
-      </c>
-      <c r="AE22">
-        <v>1</v>
-      </c>
-      <c r="AF22">
-        <v>1</v>
-      </c>
-      <c r="AG22">
-        <v>1.5</v>
-      </c>
-      <c r="AH22">
-        <v>1.5</v>
-      </c>
-      <c r="AI22">
-        <v>1.5</v>
-      </c>
-      <c r="AJ22">
-        <v>1</v>
-      </c>
-      <c r="AK22">
-        <v>1.5</v>
-      </c>
-      <c r="AL22">
-        <v>1.5</v>
-      </c>
-      <c r="AM22">
-        <v>1.5</v>
-      </c>
-      <c r="AN22">
-        <v>1.5</v>
+        <v>56</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="J22" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K22" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="L22" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M22" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="O22" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="P22" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="Q22" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="R22" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="S22" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="T22" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="U22" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="V22" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="W22" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="X22" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="Y22" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="Z22" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="AA22" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="AB22" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="AC22" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="AD22" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="AE22" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="AF22" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="AG22" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="AH22" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="AI22" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="AJ22" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="AK22" s="7">
+        <v>0.75</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
+    <row r="23" spans="1:37">
       <c r="A23" s="6">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="D23" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="E23" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="F23" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="G23" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="H23" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="I23" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="J23" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="K23" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="L23" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="M23" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="N23" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="O23" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="P23" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="Q23" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="R23" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="S23" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="T23" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="U23" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="V23" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="W23" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="X23" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="Y23" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="Z23" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="AA23" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="AB23" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="AC23" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="AD23" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="AE23" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="AF23" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="AG23" s="7">
-        <v>0.75</v>
+        <v>57</v>
+      </c>
+      <c r="C23">
+        <v>0.5</v>
+      </c>
+      <c r="D23">
+        <v>0.5</v>
+      </c>
+      <c r="E23">
+        <v>0.5</v>
+      </c>
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+      <c r="G23">
+        <v>0.5</v>
+      </c>
+      <c r="H23">
+        <v>0.5</v>
+      </c>
+      <c r="I23">
+        <v>0.5</v>
+      </c>
+      <c r="J23">
+        <v>0.5</v>
+      </c>
+      <c r="K23">
+        <v>0.5</v>
+      </c>
+      <c r="L23">
+        <v>0.5</v>
+      </c>
+      <c r="M23">
+        <v>0.5</v>
+      </c>
+      <c r="N23">
+        <v>0.5</v>
+      </c>
+      <c r="O23">
+        <v>0.5</v>
+      </c>
+      <c r="P23">
+        <v>0.5</v>
+      </c>
+      <c r="Q23">
+        <v>0.5</v>
+      </c>
+      <c r="R23">
+        <v>0.5</v>
+      </c>
+      <c r="S23">
+        <v>0.5</v>
+      </c>
+      <c r="T23">
+        <v>0.5</v>
+      </c>
+      <c r="U23">
+        <v>0.5</v>
+      </c>
+      <c r="V23">
+        <v>0.5</v>
+      </c>
+      <c r="W23">
+        <v>0.5</v>
+      </c>
+      <c r="X23">
+        <v>0.5</v>
+      </c>
+      <c r="Y23">
+        <v>0.5</v>
+      </c>
+      <c r="Z23">
+        <v>0.5</v>
+      </c>
+      <c r="AA23">
+        <v>0.5</v>
+      </c>
+      <c r="AB23">
+        <v>0.5</v>
+      </c>
+      <c r="AC23">
+        <v>0.5</v>
+      </c>
+      <c r="AD23">
+        <v>0.5</v>
+      </c>
+      <c r="AE23">
+        <v>0.5</v>
+      </c>
+      <c r="AF23">
+        <v>0.5</v>
+      </c>
+      <c r="AG23">
+        <v>0.5</v>
       </c>
       <c r="AH23">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AI23">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AJ23">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AK23">
-        <v>0.75</v>
-      </c>
-      <c r="AL23">
-        <v>0.75</v>
-      </c>
-      <c r="AM23">
-        <v>0.75</v>
-      </c>
-      <c r="AN23">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
+    <row r="24" spans="1:37">
       <c r="A24" s="6">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="W24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="X24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Y24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Z24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AA24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AB24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AC24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AD24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AE24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AF24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AG24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AH24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AI24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AJ24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AK24">
-        <v>0.5</v>
-      </c>
-      <c r="AL24">
-        <v>0.5</v>
-      </c>
-      <c r="AM24">
-        <v>0.5</v>
-      </c>
-      <c r="AN24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
+    <row r="25" spans="1:37">
       <c r="A25" s="6">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -4325,162 +4091,144 @@
       <c r="AK25">
         <v>1</v>
       </c>
-      <c r="AL25">
-        <v>1</v>
-      </c>
-      <c r="AM25">
-        <v>1</v>
-      </c>
-      <c r="AN25">
-        <v>1</v>
-      </c>
     </row>
-    <row r="26" spans="1:40">
+    <row r="26" spans="1:37">
       <c r="A26" s="6">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK26">
-        <v>1</v>
-      </c>
-      <c r="AL26">
-        <v>1</v>
-      </c>
-      <c r="AM26">
-        <v>1</v>
-      </c>
-      <c r="AN26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
+    <row r="27" spans="1:37">
       <c r="A27" s="6">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C27">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E27">
         <v>2</v>
       </c>
       <c r="F27">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="G27">
         <v>2</v>
       </c>
       <c r="H27">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="I27">
         <v>2</v>
@@ -4492,67 +4240,67 @@
         <v>2</v>
       </c>
       <c r="L27">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="M27">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="N27">
         <v>2</v>
       </c>
       <c r="O27">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="P27">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="Q27">
         <v>2</v>
       </c>
       <c r="R27">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="S27">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="T27">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="U27">
         <v>2</v>
       </c>
       <c r="V27">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="W27">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="X27">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="Y27">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="Z27">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AA27">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AB27">
         <v>2</v>
       </c>
       <c r="AC27">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AD27">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AE27">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AF27">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AG27">
         <v>2</v>
@@ -4564,759 +4312,696 @@
         <v>2</v>
       </c>
       <c r="AJ27">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AK27">
         <v>2</v>
       </c>
-      <c r="AL27">
-        <v>2</v>
-      </c>
-      <c r="AM27">
-        <v>2</v>
-      </c>
-      <c r="AN27">
-        <v>2</v>
-      </c>
     </row>
-    <row r="28" spans="1:40">
+    <row r="28" spans="1:37">
       <c r="A28" s="6">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="G28">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L28">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="M28">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="N28">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="O28">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="P28">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="Q28">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="R28">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="S28">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="T28">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="U28">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="V28">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="W28">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="X28">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="Y28">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="Z28">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AA28">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AB28">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AC28">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AD28">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AE28">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AF28">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AG28">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AH28">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AI28">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AJ28">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AK28">
-        <v>2</v>
-      </c>
-      <c r="AL28">
-        <v>2</v>
-      </c>
-      <c r="AM28">
-        <v>2</v>
-      </c>
-      <c r="AN28">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
+    <row r="29" spans="1:37">
       <c r="A29" s="6">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C29">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="D29">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="E29">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="F29">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="G29">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="H29">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="I29">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="J29">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="K29">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="L29">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="M29">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="N29">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="O29">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="P29">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="Q29">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="R29">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="S29">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="T29">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="U29">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="V29">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="W29">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="X29">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="Y29">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="Z29">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="AA29">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="AB29">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="AC29">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="AD29">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="AE29">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="AF29">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="AG29">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="AH29">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="AI29">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="AJ29">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="AK29">
-        <v>1.5</v>
-      </c>
-      <c r="AL29">
-        <v>1.5</v>
-      </c>
-      <c r="AM29">
-        <v>1.5</v>
-      </c>
-      <c r="AN29">
-        <v>1.5</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
+    <row r="30" spans="1:37">
       <c r="A30" s="6">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C30">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="D30">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="E30">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="F30">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="G30">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="H30">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="I30">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="J30">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="K30">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="L30">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="M30">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="N30">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="O30">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="P30">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="Q30">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="R30">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="S30">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="T30">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="U30">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="V30">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="W30">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="X30">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="Y30">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="Z30">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="AA30">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="AB30">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="AC30">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="AD30">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="AE30">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="AF30">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="AG30">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="AH30">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="AI30">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="AJ30">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="AK30">
-        <v>10</v>
-      </c>
-      <c r="AL30">
-        <v>10</v>
-      </c>
-      <c r="AM30">
-        <v>10</v>
-      </c>
-      <c r="AN30">
-        <v>10</v>
+        <v>1.5</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
+    <row r="31" spans="1:37">
       <c r="A31" s="6">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E31">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G31">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I31">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="J31">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="K31">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M31">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N31">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="O31">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P31">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q31">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R31">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S31">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="T31">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U31">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="V31">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="W31">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X31">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Y31">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Z31">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AA31">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AB31">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AC31">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AD31">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AE31">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AF31">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AG31">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AH31">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AI31">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AJ31">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AK31">
-        <v>1.5</v>
-      </c>
-      <c r="AL31">
-        <v>1.5</v>
-      </c>
-      <c r="AM31">
-        <v>1.5</v>
-      </c>
-      <c r="AN31">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
+    <row r="32" spans="1:37">
       <c r="A32" s="6">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C32">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="D32">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="E32">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="F32">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="G32">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H32">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="I32">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="J32">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="K32">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="L32">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="M32">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="N32">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="O32">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="P32">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q32">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R32">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="S32">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="T32">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="U32">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="V32">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="W32">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="X32">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="Y32">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="Z32">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AA32">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AB32">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AC32">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AD32">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AE32">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AF32">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AG32">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AH32">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AI32">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AJ32">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AK32">
-        <v>0.5</v>
-      </c>
-      <c r="AL32">
-        <v>0.5</v>
-      </c>
-      <c r="AM32">
-        <v>0.5</v>
-      </c>
-      <c r="AN32">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
+    <row r="33" spans="1:37">
       <c r="A33" s="6">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="E33">
-        <v>1.5</v>
+        <v>0.15</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="G33">
-        <v>1.5</v>
+        <v>0.15</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="I33">
-        <v>1.5</v>
+        <v>0.15</v>
       </c>
       <c r="J33">
-        <v>1.5</v>
+        <v>0.15</v>
       </c>
       <c r="K33">
-        <v>1.5</v>
+        <v>0.15</v>
       </c>
       <c r="L33">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="M33">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="N33">
-        <v>1.5</v>
+        <v>0.15</v>
       </c>
       <c r="O33">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="P33">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="Q33">
-        <v>1.5</v>
+        <v>0.15</v>
       </c>
       <c r="R33">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="S33">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="T33">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="U33">
-        <v>1.5</v>
+        <v>0.15</v>
       </c>
       <c r="V33">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="W33">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="X33">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="Y33">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="Z33">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="AA33">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="AB33">
-        <v>1.5</v>
+        <v>0.15</v>
       </c>
       <c r="AC33">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="AD33">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="AE33">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="AF33">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="AG33">
-        <v>1.5</v>
+        <v>0.15</v>
       </c>
       <c r="AH33">
-        <v>1.5</v>
+        <v>0.15</v>
       </c>
       <c r="AI33">
-        <v>1.5</v>
+        <v>0.15</v>
       </c>
       <c r="AJ33">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="AK33">
-        <v>1.5</v>
-      </c>
-      <c r="AL33">
-        <v>1.5</v>
-      </c>
-      <c r="AM33">
-        <v>1.5</v>
-      </c>
-      <c r="AN33">
-        <v>1.5</v>
+        <v>0.15</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
+    <row r="34" spans="1:37">
       <c r="A34" s="6">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C34">
         <v>0.15</v>
@@ -5423,1057 +5108,857 @@
       <c r="AK34">
         <v>0.15</v>
       </c>
-      <c r="AL34">
-        <v>0.15</v>
-      </c>
-      <c r="AM34">
-        <v>0.15</v>
-      </c>
-      <c r="AN34">
-        <v>0.15</v>
-      </c>
     </row>
-    <row r="35" spans="1:40">
+    <row r="35" spans="1:37">
       <c r="A35" s="6">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C35">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="D35">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="E35">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="J35">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="K35">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="L35">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="M35">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="N35">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="P35">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="R35">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="S35">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="T35">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="U35">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="V35">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="W35">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="X35">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="Y35">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="Z35">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="AA35">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="AB35">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="AC35">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="AD35">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="AE35">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="AF35">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="AG35">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="AH35">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="AI35">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="AJ35">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="AK35">
-        <v>0.15</v>
-      </c>
-      <c r="AL35">
-        <v>0.15</v>
-      </c>
-      <c r="AM35">
-        <v>0.15</v>
-      </c>
-      <c r="AN35">
-        <v>0.15</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:40">
+    <row r="36" spans="1:37">
       <c r="A36" s="6">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M36">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O36">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P36">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q36">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R36">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S36">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="T36">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U36">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V36">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="W36">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X36">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Y36">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Z36">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AA36">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AB36">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AC36">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AD36">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AE36">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AF36">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AG36">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AH36">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AI36">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AJ36">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AK36">
-        <v>1</v>
-      </c>
-      <c r="AL36">
-        <v>1</v>
-      </c>
-      <c r="AM36">
-        <v>1</v>
-      </c>
-      <c r="AN36">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:40">
+    <row r="37" spans="1:37">
       <c r="A37" s="6">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="W37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="X37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Y37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Z37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AA37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AB37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AC37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AD37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AE37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AF37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AG37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AH37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AI37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AJ37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AK37">
-        <v>0.5</v>
-      </c>
-      <c r="AL37">
-        <v>0.5</v>
-      </c>
-      <c r="AM37">
-        <v>0.5</v>
-      </c>
-      <c r="AN37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:40">
+    <row r="38" spans="1:37">
       <c r="A38" s="6">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="T38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="W38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Y38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Z38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AA38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AB38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AC38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AD38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AE38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AF38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AG38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AH38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AI38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AJ38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AK38">
-        <v>1</v>
-      </c>
-      <c r="AL38">
-        <v>1</v>
-      </c>
-      <c r="AM38">
-        <v>1</v>
-      </c>
-      <c r="AN38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:40">
+    <row r="39" s="2" customFormat="1" spans="1:37">
       <c r="A39" s="6">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39">
-        <v>0.5</v>
-      </c>
-      <c r="D39">
-        <v>0.5</v>
-      </c>
-      <c r="E39">
-        <v>0.5</v>
-      </c>
-      <c r="F39">
-        <v>0.5</v>
-      </c>
-      <c r="G39">
-        <v>0.5</v>
-      </c>
-      <c r="H39">
-        <v>0.5</v>
-      </c>
-      <c r="I39">
-        <v>0.5</v>
-      </c>
-      <c r="J39">
-        <v>0.5</v>
-      </c>
-      <c r="K39">
-        <v>0.5</v>
-      </c>
-      <c r="L39">
-        <v>0.5</v>
-      </c>
-      <c r="M39">
-        <v>0.5</v>
-      </c>
-      <c r="N39">
-        <v>0.5</v>
-      </c>
-      <c r="O39">
-        <v>0.5</v>
-      </c>
-      <c r="P39">
-        <v>0.5</v>
-      </c>
-      <c r="Q39">
-        <v>0.5</v>
-      </c>
-      <c r="R39">
-        <v>0.5</v>
-      </c>
-      <c r="S39">
-        <v>0.5</v>
-      </c>
-      <c r="T39">
-        <v>0.5</v>
-      </c>
-      <c r="U39">
-        <v>0.5</v>
-      </c>
-      <c r="V39">
-        <v>0.5</v>
-      </c>
-      <c r="W39">
-        <v>0.5</v>
-      </c>
-      <c r="X39">
-        <v>0.5</v>
-      </c>
-      <c r="Y39">
-        <v>0.5</v>
-      </c>
-      <c r="Z39">
-        <v>0.5</v>
-      </c>
-      <c r="AA39">
-        <v>0.5</v>
-      </c>
-      <c r="AB39">
-        <v>0.5</v>
-      </c>
-      <c r="AC39">
-        <v>0.5</v>
-      </c>
-      <c r="AD39">
-        <v>0.5</v>
-      </c>
-      <c r="AE39">
-        <v>0.5</v>
-      </c>
-      <c r="AF39">
-        <v>0.5</v>
-      </c>
-      <c r="AG39">
-        <v>0.5</v>
-      </c>
-      <c r="AH39">
-        <v>0.5</v>
-      </c>
-      <c r="AI39">
-        <v>0.5</v>
-      </c>
-      <c r="AJ39">
-        <v>0.5</v>
-      </c>
-      <c r="AK39">
-        <v>0.5</v>
-      </c>
-      <c r="AL39">
-        <v>0.5</v>
-      </c>
-      <c r="AM39">
-        <v>0.5</v>
-      </c>
-      <c r="AN39">
-        <v>0.5</v>
+      <c r="B39" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="2">
+        <v>15</v>
+      </c>
+      <c r="D39" s="2">
+        <v>15</v>
+      </c>
+      <c r="E39" s="2">
+        <v>15</v>
+      </c>
+      <c r="F39" s="2">
+        <v>15</v>
+      </c>
+      <c r="G39" s="2">
+        <v>15</v>
+      </c>
+      <c r="H39" s="2">
+        <v>15</v>
+      </c>
+      <c r="I39" s="2">
+        <v>15</v>
+      </c>
+      <c r="J39" s="2">
+        <v>15</v>
+      </c>
+      <c r="K39" s="2">
+        <v>15</v>
+      </c>
+      <c r="L39" s="2">
+        <v>15</v>
+      </c>
+      <c r="M39" s="2">
+        <v>15</v>
+      </c>
+      <c r="N39" s="2">
+        <v>15</v>
+      </c>
+      <c r="O39" s="2">
+        <v>15</v>
+      </c>
+      <c r="P39" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>15</v>
+      </c>
+      <c r="R39" s="2">
+        <v>15</v>
+      </c>
+      <c r="S39" s="2">
+        <v>15</v>
+      </c>
+      <c r="T39" s="2">
+        <v>15</v>
+      </c>
+      <c r="U39" s="2">
+        <v>15</v>
+      </c>
+      <c r="V39" s="2">
+        <v>15</v>
+      </c>
+      <c r="W39" s="2">
+        <v>15</v>
+      </c>
+      <c r="X39" s="2">
+        <v>15</v>
+      </c>
+      <c r="Y39" s="2">
+        <v>15</v>
+      </c>
+      <c r="Z39" s="2">
+        <v>15</v>
+      </c>
+      <c r="AA39" s="2">
+        <v>15</v>
+      </c>
+      <c r="AB39" s="2">
+        <v>15</v>
+      </c>
+      <c r="AC39" s="2">
+        <v>15</v>
+      </c>
+      <c r="AD39" s="2">
+        <v>15</v>
+      </c>
+      <c r="AE39" s="2">
+        <v>15</v>
+      </c>
+      <c r="AF39" s="2">
+        <v>15</v>
+      </c>
+      <c r="AG39" s="2">
+        <v>15</v>
+      </c>
+      <c r="AH39" s="2">
+        <v>15</v>
+      </c>
+      <c r="AI39" s="2">
+        <v>15</v>
+      </c>
+      <c r="AJ39" s="2">
+        <v>15</v>
+      </c>
+      <c r="AK39" s="2">
+        <v>15</v>
       </c>
     </row>
-    <row r="40" s="2" customFormat="1" spans="1:40">
-      <c r="A40" s="8">
-        <v>38</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C40" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="D40" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="E40" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="F40" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="G40" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="H40" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="I40" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="J40" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="K40" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="L40" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="M40" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="N40" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="O40" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="P40" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="Q40" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="R40" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="S40" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="T40" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="U40" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="V40" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="W40" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="X40" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="Y40" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="Z40" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AA40" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AB40" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AC40" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AD40" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AE40" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AF40" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AG40" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AH40" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AI40" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AJ40" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AK40" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AL40" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AM40" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="AN40" s="2">
-        <v>0.75</v>
+    <row r="40" spans="2:37">
+      <c r="B40" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="8">
+        <f>SUM(C3:C39)</f>
+        <v>69.05</v>
+      </c>
+      <c r="D40" s="8">
+        <f>SUM(D3:D39)</f>
+        <v>69.05</v>
+      </c>
+      <c r="E40" s="8">
+        <f>SUM(E3:E39)</f>
+        <v>69.05</v>
+      </c>
+      <c r="F40" s="8">
+        <f>SUM(F3:F39)</f>
+        <v>69.05</v>
+      </c>
+      <c r="G40" s="8">
+        <f>SUM(G3:G39)</f>
+        <v>69.05</v>
+      </c>
+      <c r="H40" s="8">
+        <f t="shared" ref="H40:AM40" si="0">SUM(H3:H39)</f>
+        <v>69.05</v>
+      </c>
+      <c r="I40" s="8">
+        <f t="shared" si="0"/>
+        <v>69.05</v>
+      </c>
+      <c r="J40" s="8">
+        <f t="shared" si="0"/>
+        <v>69.05</v>
+      </c>
+      <c r="K40" s="8">
+        <f t="shared" si="0"/>
+        <v>69.05</v>
+      </c>
+      <c r="L40" s="8">
+        <f t="shared" si="0"/>
+        <v>69.05</v>
+      </c>
+      <c r="M40" s="8">
+        <f t="shared" si="0"/>
+        <v>69.05</v>
+      </c>
+      <c r="N40" s="8">
+        <f t="shared" si="0"/>
+        <v>69.05</v>
+      </c>
+      <c r="O40" s="8">
+        <f t="shared" si="0"/>
+        <v>69.05</v>
+      </c>
+      <c r="P40" s="8">
+        <f t="shared" si="0"/>
+        <v>69.05</v>
+      </c>
+      <c r="Q40" s="8">
+        <f t="shared" si="0"/>
+        <v>69.05</v>
+      </c>
+      <c r="R40" s="8">
+        <f t="shared" si="0"/>
+        <v>69.05</v>
+      </c>
+      <c r="S40" s="8">
+        <f t="shared" si="0"/>
+        <v>69.05</v>
+      </c>
+      <c r="T40" s="8">
+        <f t="shared" si="0"/>
+        <v>69.05</v>
+      </c>
+      <c r="U40" s="8">
+        <f t="shared" si="0"/>
+        <v>69.05</v>
+      </c>
+      <c r="V40" s="8">
+        <f t="shared" si="0"/>
+        <v>69.05</v>
+      </c>
+      <c r="W40" s="8">
+        <f t="shared" si="0"/>
+        <v>69.05</v>
+      </c>
+      <c r="X40" s="8">
+        <f t="shared" si="0"/>
+        <v>69.05</v>
+      </c>
+      <c r="Y40" s="8">
+        <f t="shared" si="0"/>
+        <v>69.05</v>
+      </c>
+      <c r="Z40" s="8">
+        <f t="shared" si="0"/>
+        <v>69.05</v>
+      </c>
+      <c r="AA40" s="8">
+        <f t="shared" si="0"/>
+        <v>69.05</v>
+      </c>
+      <c r="AB40" s="8">
+        <f t="shared" si="0"/>
+        <v>69.05</v>
+      </c>
+      <c r="AC40" s="8">
+        <f>SUM(AC3:AC39)</f>
+        <v>69.05</v>
+      </c>
+      <c r="AD40" s="8">
+        <f>SUM(AD3:AD39)</f>
+        <v>69.05</v>
+      </c>
+      <c r="AE40" s="8">
+        <f>SUM(AE3:AE39)</f>
+        <v>69.05</v>
+      </c>
+      <c r="AF40" s="8">
+        <f>SUM(AF3:AF39)</f>
+        <v>69.05</v>
+      </c>
+      <c r="AG40" s="8">
+        <f>SUM(AG3:AG39)</f>
+        <v>69.05</v>
+      </c>
+      <c r="AH40" s="8">
+        <f>SUM(AH3:AH39)</f>
+        <v>69.05</v>
+      </c>
+      <c r="AI40" s="8">
+        <f>SUM(AI3:AI39)</f>
+        <v>69.05</v>
+      </c>
+      <c r="AJ40" s="8">
+        <f>SUM(AJ3:AJ39)</f>
+        <v>69.05</v>
+      </c>
+      <c r="AK40" s="8">
+        <f>SUM(AK3:AK39)</f>
+        <v>69.05</v>
       </c>
     </row>
-    <row r="41" spans="2:40">
-      <c r="B41" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" s="9">
-        <f>SUM(C3:C40)</f>
-        <v>52.3</v>
-      </c>
-      <c r="D41" s="9">
-        <f t="shared" ref="D41:AM41" si="0">SUM(D3:D40)</f>
-        <v>52.55</v>
-      </c>
-      <c r="E41" s="9">
-        <f t="shared" si="0"/>
-        <v>55.55</v>
-      </c>
-      <c r="F41" s="9">
-        <f t="shared" si="0"/>
-        <v>52.3</v>
-      </c>
-      <c r="G41" s="9">
-        <f t="shared" si="0"/>
-        <v>55.55</v>
-      </c>
-      <c r="H41" s="9">
-        <f t="shared" si="0"/>
-        <v>52.3</v>
-      </c>
-      <c r="I41" s="9">
-        <f t="shared" si="0"/>
-        <v>55.55</v>
-      </c>
-      <c r="J41" s="9">
-        <f t="shared" si="0"/>
-        <v>55.55</v>
-      </c>
-      <c r="K41" s="9">
-        <f t="shared" si="0"/>
-        <v>55.55</v>
-      </c>
-      <c r="L41" s="9">
-        <f t="shared" si="0"/>
-        <v>52.3</v>
-      </c>
-      <c r="M41" s="9">
-        <f t="shared" si="0"/>
-        <v>52.3</v>
-      </c>
-      <c r="N41" s="9">
-        <f t="shared" si="0"/>
-        <v>55.55</v>
-      </c>
-      <c r="O41" s="9">
-        <f t="shared" si="0"/>
-        <v>52.55</v>
-      </c>
-      <c r="P41" s="9">
-        <f t="shared" si="0"/>
-        <v>52.3</v>
-      </c>
-      <c r="Q41" s="9">
-        <f t="shared" si="0"/>
-        <v>55.55</v>
-      </c>
-      <c r="R41" s="9">
-        <f t="shared" si="0"/>
-        <v>52.3</v>
-      </c>
-      <c r="S41" s="9">
-        <f t="shared" si="0"/>
-        <v>52.3</v>
-      </c>
-      <c r="T41" s="9">
-        <f t="shared" si="0"/>
-        <v>52.3</v>
-      </c>
-      <c r="U41" s="9">
-        <f t="shared" si="0"/>
-        <v>55.55</v>
-      </c>
-      <c r="V41" s="9">
-        <f t="shared" si="0"/>
-        <v>52.3</v>
-      </c>
-      <c r="W41" s="9">
-        <f t="shared" si="0"/>
-        <v>52.3</v>
-      </c>
-      <c r="X41" s="9">
-        <f t="shared" si="0"/>
-        <v>52.3</v>
-      </c>
-      <c r="Y41" s="9">
-        <f t="shared" si="0"/>
-        <v>52.3</v>
-      </c>
-      <c r="Z41" s="9">
-        <f t="shared" si="0"/>
-        <v>52.3</v>
-      </c>
-      <c r="AA41" s="9">
-        <f t="shared" si="0"/>
-        <v>52.3</v>
-      </c>
-      <c r="AB41" s="9">
-        <f t="shared" si="0"/>
-        <v>55.55</v>
-      </c>
-      <c r="AC41" s="9">
-        <f t="shared" si="0"/>
-        <v>52.3</v>
-      </c>
-      <c r="AD41" s="9">
-        <f t="shared" si="0"/>
-        <v>52.3</v>
-      </c>
-      <c r="AE41" s="9">
-        <f t="shared" si="0"/>
-        <v>52.3</v>
-      </c>
-      <c r="AF41" s="9">
-        <f t="shared" si="0"/>
-        <v>52.3</v>
-      </c>
-      <c r="AG41" s="9">
-        <f t="shared" si="0"/>
-        <v>55.55</v>
-      </c>
-      <c r="AH41" s="9">
-        <f t="shared" si="0"/>
-        <v>55.55</v>
-      </c>
-      <c r="AI41" s="9">
-        <f t="shared" si="0"/>
-        <v>55.55</v>
-      </c>
-      <c r="AJ41" s="9">
-        <f t="shared" si="0"/>
-        <v>52.3</v>
-      </c>
-      <c r="AK41" s="9">
-        <f t="shared" si="0"/>
-        <v>55.55</v>
-      </c>
-      <c r="AL41" s="9">
-        <f t="shared" si="0"/>
-        <v>55.55</v>
-      </c>
-      <c r="AM41" s="9">
-        <f t="shared" si="0"/>
-        <v>55.55</v>
-      </c>
-      <c r="AN41" s="9">
-        <f>SUM(AN3:AN40)</f>
-        <v>55.55</v>
-      </c>
-    </row>
-    <row r="42" spans="3:40">
-      <c r="C42" t="str">
-        <f>IF(C41=52.3,"小",IF(C41=52.55,"中",IF(C41=55.55,"大","错误")))</f>
-        <v>小</v>
-      </c>
-      <c r="D42" t="str">
-        <f>IF(D41=52.3,"小",IF(D41=52.55,"中",IF(D41=55.55,"大","错误")))</f>
-        <v>中</v>
-      </c>
-      <c r="E42" t="str">
-        <f>IF(E41=52.3,"小",IF(E41=52.55,"中",IF(E41=55.55,"大","错误")))</f>
-        <v>大</v>
-      </c>
-      <c r="F42" t="str">
-        <f>IF(F41=52.3,"小",IF(F41=52.55,"中",IF(F41=55.55,"大","错误")))</f>
-        <v>小</v>
-      </c>
-      <c r="G42" t="str">
-        <f t="shared" ref="G42:AM42" si="1">IF(G41=52.3,"小",IF(G41=52.55,"中",IF(G41=55.55,"大","错误")))</f>
-        <v>大</v>
-      </c>
-      <c r="H42" t="str">
+    <row r="41" spans="3:37">
+      <c r="C41" t="str">
+        <f>IF(C40=52.3,"小",IF(C40=52.55,"中",IF(C40=55.55,"大","错误")))</f>
+        <v>错误</v>
+      </c>
+      <c r="D41" t="str">
+        <f>IF(D40=52.3,"小",IF(D40=52.55,"中",IF(D40=55.55,"大","错误")))</f>
+        <v>错误</v>
+      </c>
+      <c r="E41" t="str">
+        <f>IF(E40=52.3,"小",IF(E40=52.55,"中",IF(E40=55.55,"大","错误")))</f>
+        <v>错误</v>
+      </c>
+      <c r="F41" t="str">
+        <f>IF(F40=52.3,"小",IF(F40=52.55,"中",IF(F40=55.55,"大","错误")))</f>
+        <v>错误</v>
+      </c>
+      <c r="G41" t="str">
+        <f>IF(G40=52.3,"小",IF(G40=52.55,"中",IF(G40=55.55,"大","错误")))</f>
+        <v>错误</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" ref="H41:AM41" si="1">IF(H40=52.3,"小",IF(H40=52.55,"中",IF(H40=55.55,"大","错误")))</f>
+        <v>错误</v>
+      </c>
+      <c r="I41" t="str">
         <f t="shared" si="1"/>
-        <v>小</v>
-      </c>
-      <c r="I42" t="str">
+        <v>错误</v>
+      </c>
+      <c r="J41" t="str">
         <f t="shared" si="1"/>
-        <v>大</v>
-      </c>
-      <c r="J42" t="str">
+        <v>错误</v>
+      </c>
+      <c r="K41" t="str">
         <f t="shared" si="1"/>
-        <v>大</v>
-      </c>
-      <c r="K42" t="str">
+        <v>错误</v>
+      </c>
+      <c r="L41" t="str">
         <f t="shared" si="1"/>
-        <v>大</v>
-      </c>
-      <c r="L42" t="str">
+        <v>错误</v>
+      </c>
+      <c r="M41" t="str">
         <f t="shared" si="1"/>
-        <v>小</v>
-      </c>
-      <c r="M42" t="str">
+        <v>错误</v>
+      </c>
+      <c r="N41" t="str">
         <f t="shared" si="1"/>
-        <v>小</v>
-      </c>
-      <c r="N42" t="str">
+        <v>错误</v>
+      </c>
+      <c r="O41" t="str">
         <f t="shared" si="1"/>
-        <v>大</v>
-      </c>
-      <c r="O42" t="str">
+        <v>错误</v>
+      </c>
+      <c r="P41" t="str">
         <f t="shared" si="1"/>
-        <v>中</v>
-      </c>
-      <c r="P42" t="str">
+        <v>错误</v>
+      </c>
+      <c r="Q41" t="str">
         <f t="shared" si="1"/>
-        <v>小</v>
-      </c>
-      <c r="Q42" t="str">
+        <v>错误</v>
+      </c>
+      <c r="R41" t="str">
         <f t="shared" si="1"/>
-        <v>大</v>
-      </c>
-      <c r="R42" t="str">
+        <v>错误</v>
+      </c>
+      <c r="S41" t="str">
         <f t="shared" si="1"/>
-        <v>小</v>
-      </c>
-      <c r="S42" t="str">
+        <v>错误</v>
+      </c>
+      <c r="T41" t="str">
         <f t="shared" si="1"/>
-        <v>小</v>
-      </c>
-      <c r="T42" t="str">
+        <v>错误</v>
+      </c>
+      <c r="U41" t="str">
         <f t="shared" si="1"/>
-        <v>小</v>
-      </c>
-      <c r="U42" t="str">
+        <v>错误</v>
+      </c>
+      <c r="V41" t="str">
         <f t="shared" si="1"/>
-        <v>大</v>
-      </c>
-      <c r="V42" t="str">
+        <v>错误</v>
+      </c>
+      <c r="W41" t="str">
         <f t="shared" si="1"/>
-        <v>小</v>
-      </c>
-      <c r="W42" t="str">
+        <v>错误</v>
+      </c>
+      <c r="X41" t="str">
         <f t="shared" si="1"/>
-        <v>小</v>
-      </c>
-      <c r="X42" t="str">
+        <v>错误</v>
+      </c>
+      <c r="Y41" t="str">
         <f t="shared" si="1"/>
-        <v>小</v>
-      </c>
-      <c r="Y42" t="str">
+        <v>错误</v>
+      </c>
+      <c r="Z41" t="str">
         <f t="shared" si="1"/>
-        <v>小</v>
-      </c>
-      <c r="Z42" t="str">
+        <v>错误</v>
+      </c>
+      <c r="AA41" t="str">
         <f t="shared" si="1"/>
-        <v>小</v>
-      </c>
-      <c r="AA42" t="str">
+        <v>错误</v>
+      </c>
+      <c r="AB41" t="str">
         <f t="shared" si="1"/>
-        <v>小</v>
-      </c>
-      <c r="AB42" t="str">
-        <f t="shared" si="1"/>
-        <v>大</v>
-      </c>
-      <c r="AC42" t="str">
-        <f t="shared" si="1"/>
-        <v>小</v>
-      </c>
-      <c r="AD42" t="str">
-        <f t="shared" si="1"/>
-        <v>小</v>
-      </c>
-      <c r="AE42" t="str">
-        <f t="shared" si="1"/>
-        <v>小</v>
-      </c>
-      <c r="AF42" t="str">
-        <f t="shared" si="1"/>
-        <v>小</v>
-      </c>
-      <c r="AG42" t="str">
-        <f t="shared" si="1"/>
-        <v>大</v>
-      </c>
-      <c r="AH42" t="str">
-        <f t="shared" si="1"/>
-        <v>大</v>
-      </c>
-      <c r="AI42" t="str">
-        <f t="shared" si="1"/>
-        <v>大</v>
-      </c>
-      <c r="AJ42" t="str">
-        <f t="shared" si="1"/>
-        <v>小</v>
-      </c>
-      <c r="AK42" t="str">
-        <f t="shared" si="1"/>
-        <v>大</v>
-      </c>
-      <c r="AL42" t="str">
-        <f t="shared" si="1"/>
-        <v>大</v>
-      </c>
-      <c r="AM42" t="str">
-        <f t="shared" si="1"/>
-        <v>大</v>
-      </c>
-      <c r="AN42" t="str">
-        <f>IF(AN41=52.3,"小",IF(AN41=52.55,"中",IF(AN41=55.55,"大","错误")))</f>
-        <v>大</v>
+        <v>错误</v>
+      </c>
+      <c r="AC41" t="str">
+        <f>IF(AC40=52.3,"小",IF(AC40=52.55,"中",IF(AC40=55.55,"大","错误")))</f>
+        <v>错误</v>
+      </c>
+      <c r="AD41" t="str">
+        <f>IF(AD40=52.3,"小",IF(AD40=52.55,"中",IF(AD40=55.55,"大","错误")))</f>
+        <v>错误</v>
+      </c>
+      <c r="AE41" t="str">
+        <f>IF(AE40=52.3,"小",IF(AE40=52.55,"中",IF(AE40=55.55,"大","错误")))</f>
+        <v>错误</v>
+      </c>
+      <c r="AF41" t="str">
+        <f>IF(AF40=52.3,"小",IF(AF40=52.55,"中",IF(AF40=55.55,"大","错误")))</f>
+        <v>错误</v>
+      </c>
+      <c r="AG41" t="str">
+        <f>IF(AG40=52.3,"小",IF(AG40=52.55,"中",IF(AG40=55.55,"大","错误")))</f>
+        <v>错误</v>
+      </c>
+      <c r="AH41" t="str">
+        <f>IF(AH40=52.3,"小",IF(AH40=52.55,"中",IF(AH40=55.55,"大","错误")))</f>
+        <v>错误</v>
+      </c>
+      <c r="AI41" t="str">
+        <f>IF(AI40=52.3,"小",IF(AI40=52.55,"中",IF(AI40=55.55,"大","错误")))</f>
+        <v>错误</v>
+      </c>
+      <c r="AJ41" t="str">
+        <f>IF(AJ40=52.3,"小",IF(AJ40=52.55,"中",IF(AJ40=55.55,"大","错误")))</f>
+        <v>错误</v>
+      </c>
+      <c r="AK41" t="str">
+        <f>IF(AK40=52.3,"小",IF(AK40=52.55,"中",IF(AK40=55.55,"大","错误")))</f>
+        <v>错误</v>
       </c>
     </row>
   </sheetData>

--- a/config/门店规格.xlsx
+++ b/config/门店规格.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>序号</t>
   </si>
@@ -37,6 +37,9 @@
     <t>丰石路</t>
   </si>
   <si>
+    <t>B</t>
+  </si>
+  <si>
     <t>江宁大司口</t>
   </si>
   <si>
@@ -97,34 +100,46 @@
     <t>无锡融创永辉</t>
   </si>
   <si>
+    <t>保利樾</t>
+  </si>
+  <si>
+    <t>中山东路</t>
+  </si>
+  <si>
+    <t>时尚莱迪广场</t>
+  </si>
+  <si>
+    <t>六合龙湖天街</t>
+  </si>
+  <si>
+    <t>六合龙湖永辉</t>
+  </si>
+  <si>
+    <t>禄口机场</t>
+  </si>
+  <si>
+    <t>莱茵达路</t>
+  </si>
+  <si>
+    <t>高铁南地铁店</t>
+  </si>
+  <si>
     <t>淮安花漾城</t>
   </si>
   <si>
-    <t>保利樾</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>中山东路</t>
+    <t>淮安旺角大学城</t>
+  </si>
+  <si>
+    <t>淮安苏宁广场</t>
+  </si>
+  <si>
+    <t>淮安楚秀园</t>
   </si>
   <si>
     <t>淮安楚州万达</t>
   </si>
   <si>
-    <t>淮安楚秀园</t>
-  </si>
-  <si>
-    <t>时尚莱迪广场</t>
-  </si>
-  <si>
-    <t>六合龙湖天街</t>
-  </si>
-  <si>
-    <t>六合龙湖永辉</t>
-  </si>
-  <si>
-    <t>禄口机场</t>
+    <t>淮安信息学院</t>
   </si>
   <si>
     <t>绝味鸭脖</t>
@@ -246,8 +261,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -298,6 +313,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -320,13 +349,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -343,6 +365,22 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -350,24 +388,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,30 +403,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -427,8 +428,22 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -449,13 +464,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,25 +548,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,19 +584,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,19 +602,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,85 +644,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,6 +663,32 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,6 +718,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -691,52 +747,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -748,10 +763,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -760,133 +775,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1237,10 +1252,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AK41"/>
+  <dimension ref="A1:AP41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="AK3" sqref="AK3:AP41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1251,7 +1266,8 @@
     <col min="4" max="4" width="12.5555555555556" customWidth="1"/>
     <col min="5" max="5" width="10.1111111111111" customWidth="1"/>
     <col min="6" max="7" width="8" customWidth="1"/>
-    <col min="8" max="9" width="12.5555555555556" customWidth="1"/>
+    <col min="8" max="8" width="6.11111111111111" customWidth="1"/>
+    <col min="9" max="9" width="12.5555555555556" customWidth="1"/>
     <col min="10" max="10" width="14.8888888888889" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
     <col min="12" max="12" width="10.1111111111111" customWidth="1"/>
@@ -1271,9 +1287,14 @@
     <col min="32" max="32" width="14.8888888888889" customWidth="1"/>
     <col min="33" max="33" width="12.5555555555556" customWidth="1"/>
     <col min="34" max="36" width="14.8888888888889" customWidth="1"/>
+    <col min="37" max="37" width="12.5555555555556" customWidth="1"/>
+    <col min="38" max="38" width="17.2222222222222" customWidth="1"/>
+    <col min="39" max="39" width="14.8888888888889" customWidth="1"/>
+    <col min="40" max="40" width="12.5555555555556" customWidth="1"/>
+    <col min="41" max="42" width="14.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:37">
+    <row r="1" spans="3:42">
       <c r="C1" s="4">
         <v>1</v>
       </c>
@@ -1379,8 +1400,23 @@
       <c r="AK1" s="4">
         <v>35</v>
       </c>
+      <c r="AL1" s="4">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="4">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="4">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="4">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="4">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:37">
+    <row r="2" s="1" customFormat="1" spans="1:42">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1492,13 +1528,28 @@
       <c r="AK2" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="AL2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:42">
       <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1605,13 +1656,28 @@
       <c r="AK3">
         <v>2</v>
       </c>
+      <c r="AL3">
+        <v>2</v>
+      </c>
+      <c r="AM3">
+        <v>2</v>
+      </c>
+      <c r="AN3">
+        <v>2</v>
+      </c>
+      <c r="AO3">
+        <v>2</v>
+      </c>
+      <c r="AP3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:42">
       <c r="A4" s="6">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1718,13 +1784,28 @@
       <c r="AK4">
         <v>2</v>
       </c>
+      <c r="AL4">
+        <v>2</v>
+      </c>
+      <c r="AM4">
+        <v>2</v>
+      </c>
+      <c r="AN4">
+        <v>2</v>
+      </c>
+      <c r="AO4">
+        <v>2</v>
+      </c>
+      <c r="AP4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:42">
       <c r="A5" s="6">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C5">
         <v>1.5</v>
@@ -1831,126 +1912,156 @@
       <c r="AK5">
         <v>1.5</v>
       </c>
+      <c r="AL5">
+        <v>1.5</v>
+      </c>
+      <c r="AM5">
+        <v>1.5</v>
+      </c>
+      <c r="AN5">
+        <v>1.5</v>
+      </c>
+      <c r="AO5">
+        <v>1.5</v>
+      </c>
+      <c r="AP5">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:42">
       <c r="A6" s="6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="W6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Y6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Z6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AK6">
-        <v>0.5</v>
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
+        <v>1</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AO6">
+        <v>1</v>
+      </c>
+      <c r="AP6">
+        <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:42">
       <c r="A7" s="6">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C7">
         <v>10</v>
@@ -2057,13 +2168,28 @@
       <c r="AK7">
         <v>10</v>
       </c>
+      <c r="AL7">
+        <v>10</v>
+      </c>
+      <c r="AM7">
+        <v>10</v>
+      </c>
+      <c r="AN7">
+        <v>10</v>
+      </c>
+      <c r="AO7">
+        <v>10</v>
+      </c>
+      <c r="AP7">
+        <v>10</v>
+      </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:42">
       <c r="A8" s="6">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C8">
         <v>0.5</v>
@@ -2170,13 +2296,28 @@
       <c r="AK8">
         <v>0.5</v>
       </c>
+      <c r="AL8">
+        <v>0.5</v>
+      </c>
+      <c r="AM8">
+        <v>0.5</v>
+      </c>
+      <c r="AN8">
+        <v>0.5</v>
+      </c>
+      <c r="AO8">
+        <v>0.5</v>
+      </c>
+      <c r="AP8">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:42">
       <c r="A9" s="6">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C9">
         <v>0.5</v>
@@ -2283,126 +2424,156 @@
       <c r="AK9">
         <v>0.5</v>
       </c>
+      <c r="AL9">
+        <v>0.5</v>
+      </c>
+      <c r="AM9">
+        <v>0.5</v>
+      </c>
+      <c r="AN9">
+        <v>0.5</v>
+      </c>
+      <c r="AO9">
+        <v>0.5</v>
+      </c>
+      <c r="AP9">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:42">
       <c r="A10" s="6">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D10" s="7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E10" s="7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F10" s="7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G10" s="7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I10" s="7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J10" s="7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="K10" s="7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="L10" s="7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="N10" s="7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="O10" s="7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="P10" s="7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="Q10" s="7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="R10" s="7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="S10" s="7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="T10" s="7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="U10" s="7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="V10" s="7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="W10" s="7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="X10" s="7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="Y10" s="7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="Z10" s="7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AA10" s="7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AB10" s="7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AC10" s="7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AD10" s="7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AE10" s="7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AF10" s="7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AG10" s="7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AH10" s="7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AI10" s="7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AJ10" s="7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AK10" s="7">
-        <v>1</v>
+        <v>1.5</v>
+      </c>
+      <c r="AL10" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="AM10" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="AN10" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="AO10" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="AP10" s="7">
+        <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:42">
       <c r="A11" s="6">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C11">
         <v>0.5</v>
@@ -2509,13 +2680,28 @@
       <c r="AK11">
         <v>0.5</v>
       </c>
+      <c r="AL11">
+        <v>0.5</v>
+      </c>
+      <c r="AM11">
+        <v>0.5</v>
+      </c>
+      <c r="AN11">
+        <v>0.5</v>
+      </c>
+      <c r="AO11">
+        <v>0.5</v>
+      </c>
+      <c r="AP11">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:42">
       <c r="A12" s="6">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C12">
         <v>1.5</v>
@@ -2622,13 +2808,28 @@
       <c r="AK12">
         <v>1.5</v>
       </c>
+      <c r="AL12">
+        <v>1.5</v>
+      </c>
+      <c r="AM12">
+        <v>1.5</v>
+      </c>
+      <c r="AN12">
+        <v>1.5</v>
+      </c>
+      <c r="AO12">
+        <v>1.5</v>
+      </c>
+      <c r="AP12">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:42">
       <c r="A13" s="6">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C13">
         <v>1.5</v>
@@ -2735,13 +2936,28 @@
       <c r="AK13">
         <v>1.5</v>
       </c>
+      <c r="AL13">
+        <v>1.5</v>
+      </c>
+      <c r="AM13">
+        <v>1.5</v>
+      </c>
+      <c r="AN13">
+        <v>1.5</v>
+      </c>
+      <c r="AO13">
+        <v>1.5</v>
+      </c>
+      <c r="AP13">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:42">
       <c r="A14" s="6">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C14">
         <v>0.5</v>
@@ -2848,13 +3064,28 @@
       <c r="AK14">
         <v>0.5</v>
       </c>
+      <c r="AL14">
+        <v>0.5</v>
+      </c>
+      <c r="AM14">
+        <v>0.5</v>
+      </c>
+      <c r="AN14">
+        <v>0.5</v>
+      </c>
+      <c r="AO14">
+        <v>0.5</v>
+      </c>
+      <c r="AP14">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:42">
       <c r="A15" s="6">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2961,126 +3192,156 @@
       <c r="AK15">
         <v>1</v>
       </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15">
+        <v>1</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+      <c r="AO15">
+        <v>1</v>
+      </c>
+      <c r="AP15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:42">
       <c r="A16" s="6">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="O16">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="P16">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="R16">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="S16">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="T16">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="U16">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="V16">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="W16">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="X16">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="Y16">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="Z16">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AA16">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AB16">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AC16">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AD16">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AE16">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AF16">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AG16">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AH16">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AI16">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AJ16">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AK16">
-        <v>1</v>
+        <v>1.5</v>
+      </c>
+      <c r="AL16">
+        <v>1.5</v>
+      </c>
+      <c r="AM16">
+        <v>1.5</v>
+      </c>
+      <c r="AN16">
+        <v>1.5</v>
+      </c>
+      <c r="AO16">
+        <v>1.5</v>
+      </c>
+      <c r="AP16">
+        <v>1.5</v>
       </c>
     </row>
-    <row r="17" spans="1:37">
+    <row r="17" spans="1:42">
       <c r="A17" s="6">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C17">
         <v>1.5</v>
@@ -3187,239 +3448,284 @@
       <c r="AK17">
         <v>1.5</v>
       </c>
+      <c r="AL17">
+        <v>1.5</v>
+      </c>
+      <c r="AM17">
+        <v>1.5</v>
+      </c>
+      <c r="AN17">
+        <v>1.5</v>
+      </c>
+      <c r="AO17">
+        <v>1.5</v>
+      </c>
+      <c r="AP17">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="18" spans="1:37">
+    <row r="18" spans="1:42">
       <c r="A18" s="6">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C18">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D18">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E18">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F18">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G18">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H18">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="I18">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="J18">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K18">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L18">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="M18">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="N18">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="O18">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="P18">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q18">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R18">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S18">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="T18">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="U18">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="V18">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="W18">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="X18">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Y18">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Z18">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AA18">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AB18">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AC18">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AD18">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AE18">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AF18">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AG18">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AH18">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AI18">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AJ18">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AK18">
-        <v>0.25</v>
+        <v>0.5</v>
+      </c>
+      <c r="AL18">
+        <v>0.5</v>
+      </c>
+      <c r="AM18">
+        <v>0.5</v>
+      </c>
+      <c r="AN18">
+        <v>0.5</v>
+      </c>
+      <c r="AO18">
+        <v>0.5</v>
+      </c>
+      <c r="AP18">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:37">
+    <row r="19" spans="1:42">
       <c r="A19" s="6">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C19">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D19">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="E19">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F19">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G19">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="H19">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="I19">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="J19">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K19">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="L19">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="M19">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="N19">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="O19">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="P19">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q19">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R19">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="S19">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="T19">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="U19">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="V19">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="W19">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="X19">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Y19">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Z19">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AA19">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AB19">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AC19">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AD19">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AE19">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AF19">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AG19">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AH19">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AI19">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AJ19">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AK19">
-        <v>0.5</v>
+        <v>0.75</v>
+      </c>
+      <c r="AL19">
+        <v>0.75</v>
+      </c>
+      <c r="AM19">
+        <v>0.75</v>
+      </c>
+      <c r="AN19">
+        <v>0.75</v>
+      </c>
+      <c r="AO19">
+        <v>0.75</v>
+      </c>
+      <c r="AP19">
+        <v>0.75</v>
       </c>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" spans="1:42">
       <c r="A20" s="6">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C20">
         <v>0.75</v>
@@ -3526,13 +3832,28 @@
       <c r="AK20">
         <v>0.75</v>
       </c>
+      <c r="AL20">
+        <v>0.75</v>
+      </c>
+      <c r="AM20">
+        <v>0.75</v>
+      </c>
+      <c r="AN20">
+        <v>0.75</v>
+      </c>
+      <c r="AO20">
+        <v>0.75</v>
+      </c>
+      <c r="AP20">
+        <v>0.75</v>
+      </c>
     </row>
-    <row r="21" spans="1:37">
+    <row r="21" spans="1:42">
       <c r="A21" s="6">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C21">
         <v>1.5</v>
@@ -3639,13 +3960,28 @@
       <c r="AK21">
         <v>1.5</v>
       </c>
+      <c r="AL21">
+        <v>1.5</v>
+      </c>
+      <c r="AM21">
+        <v>1.5</v>
+      </c>
+      <c r="AN21">
+        <v>1.5</v>
+      </c>
+      <c r="AO21">
+        <v>1.5</v>
+      </c>
+      <c r="AP21">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="22" spans="1:37">
+    <row r="22" spans="1:42">
       <c r="A22" s="6">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C22" s="7">
         <v>0.75</v>
@@ -3752,13 +4088,28 @@
       <c r="AK22" s="7">
         <v>0.75</v>
       </c>
+      <c r="AL22" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="AM22" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="AN22" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="AO22" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="AP22" s="7">
+        <v>0.75</v>
+      </c>
     </row>
-    <row r="23" spans="1:37">
+    <row r="23" spans="1:42">
       <c r="A23" s="6">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C23">
         <v>0.5</v>
@@ -3865,13 +4216,28 @@
       <c r="AK23">
         <v>0.5</v>
       </c>
+      <c r="AL23">
+        <v>0.5</v>
+      </c>
+      <c r="AM23">
+        <v>0.5</v>
+      </c>
+      <c r="AN23">
+        <v>0.5</v>
+      </c>
+      <c r="AO23">
+        <v>0.5</v>
+      </c>
+      <c r="AP23">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="24" spans="1:37">
+    <row r="24" spans="1:42">
       <c r="A24" s="6">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -3978,13 +4344,28 @@
       <c r="AK24">
         <v>1</v>
       </c>
+      <c r="AL24">
+        <v>1</v>
+      </c>
+      <c r="AM24">
+        <v>1</v>
+      </c>
+      <c r="AN24">
+        <v>1</v>
+      </c>
+      <c r="AO24">
+        <v>1</v>
+      </c>
+      <c r="AP24">
+        <v>1</v>
+      </c>
     </row>
-    <row r="25" spans="1:37">
+    <row r="25" spans="1:42">
       <c r="A25" s="6">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -4091,13 +4472,28 @@
       <c r="AK25">
         <v>1</v>
       </c>
+      <c r="AL25">
+        <v>1</v>
+      </c>
+      <c r="AM25">
+        <v>1</v>
+      </c>
+      <c r="AN25">
+        <v>1</v>
+      </c>
+      <c r="AO25">
+        <v>1</v>
+      </c>
+      <c r="AP25">
+        <v>1</v>
+      </c>
     </row>
-    <row r="26" spans="1:37">
+    <row r="26" spans="1:42">
       <c r="A26" s="6">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -4204,13 +4600,28 @@
       <c r="AK26">
         <v>2</v>
       </c>
+      <c r="AL26">
+        <v>2</v>
+      </c>
+      <c r="AM26">
+        <v>2</v>
+      </c>
+      <c r="AN26">
+        <v>2</v>
+      </c>
+      <c r="AO26">
+        <v>2</v>
+      </c>
+      <c r="AP26">
+        <v>2</v>
+      </c>
     </row>
-    <row r="27" spans="1:37">
+    <row r="27" spans="1:42">
       <c r="A27" s="6">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -4317,13 +4728,28 @@
       <c r="AK27">
         <v>2</v>
       </c>
+      <c r="AL27">
+        <v>2</v>
+      </c>
+      <c r="AM27">
+        <v>2</v>
+      </c>
+      <c r="AN27">
+        <v>2</v>
+      </c>
+      <c r="AO27">
+        <v>2</v>
+      </c>
+      <c r="AP27">
+        <v>2</v>
+      </c>
     </row>
-    <row r="28" spans="1:37">
+    <row r="28" spans="1:42">
       <c r="A28" s="6">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C28">
         <v>1.5</v>
@@ -4430,13 +4856,28 @@
       <c r="AK28">
         <v>1.5</v>
       </c>
+      <c r="AL28">
+        <v>1.5</v>
+      </c>
+      <c r="AM28">
+        <v>1.5</v>
+      </c>
+      <c r="AN28">
+        <v>1.5</v>
+      </c>
+      <c r="AO28">
+        <v>1.5</v>
+      </c>
+      <c r="AP28">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="29" spans="1:37">
+    <row r="29" spans="1:42">
       <c r="A29" s="6">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C29">
         <v>10</v>
@@ -4543,13 +4984,28 @@
       <c r="AK29">
         <v>10</v>
       </c>
+      <c r="AL29">
+        <v>10</v>
+      </c>
+      <c r="AM29">
+        <v>10</v>
+      </c>
+      <c r="AN29">
+        <v>10</v>
+      </c>
+      <c r="AO29">
+        <v>10</v>
+      </c>
+      <c r="AP29">
+        <v>10</v>
+      </c>
     </row>
-    <row r="30" spans="1:37">
+    <row r="30" spans="1:42">
       <c r="A30" s="6">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C30">
         <v>1.5</v>
@@ -4656,13 +5112,28 @@
       <c r="AK30">
         <v>1.5</v>
       </c>
+      <c r="AL30">
+        <v>1.5</v>
+      </c>
+      <c r="AM30">
+        <v>1.5</v>
+      </c>
+      <c r="AN30">
+        <v>1.5</v>
+      </c>
+      <c r="AO30">
+        <v>1.5</v>
+      </c>
+      <c r="AP30">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="31" spans="1:37">
+    <row r="31" spans="1:42">
       <c r="A31" s="6">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C31">
         <v>0.5</v>
@@ -4769,13 +5240,28 @@
       <c r="AK31">
         <v>0.5</v>
       </c>
+      <c r="AL31">
+        <v>0.5</v>
+      </c>
+      <c r="AM31">
+        <v>0.5</v>
+      </c>
+      <c r="AN31">
+        <v>0.5</v>
+      </c>
+      <c r="AO31">
+        <v>0.5</v>
+      </c>
+      <c r="AP31">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="32" spans="1:37">
+    <row r="32" spans="1:42">
       <c r="A32" s="6">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C32">
         <v>1.5</v>
@@ -4882,13 +5368,28 @@
       <c r="AK32">
         <v>1.5</v>
       </c>
+      <c r="AL32">
+        <v>1.5</v>
+      </c>
+      <c r="AM32">
+        <v>1.5</v>
+      </c>
+      <c r="AN32">
+        <v>1.5</v>
+      </c>
+      <c r="AO32">
+        <v>1.5</v>
+      </c>
+      <c r="AP32">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="33" spans="1:37">
+    <row r="33" spans="1:42">
       <c r="A33" s="6">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C33">
         <v>0.15</v>
@@ -4995,13 +5496,28 @@
       <c r="AK33">
         <v>0.15</v>
       </c>
+      <c r="AL33">
+        <v>0.15</v>
+      </c>
+      <c r="AM33">
+        <v>0.15</v>
+      </c>
+      <c r="AN33">
+        <v>0.15</v>
+      </c>
+      <c r="AO33">
+        <v>0.15</v>
+      </c>
+      <c r="AP33">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="34" spans="1:37">
+    <row r="34" spans="1:42">
       <c r="A34" s="6">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C34">
         <v>0.15</v>
@@ -5108,13 +5624,28 @@
       <c r="AK34">
         <v>0.15</v>
       </c>
+      <c r="AL34">
+        <v>0.15</v>
+      </c>
+      <c r="AM34">
+        <v>0.15</v>
+      </c>
+      <c r="AN34">
+        <v>0.15</v>
+      </c>
+      <c r="AO34">
+        <v>0.15</v>
+      </c>
+      <c r="AP34">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="35" spans="1:37">
+    <row r="35" spans="1:42">
       <c r="A35" s="6">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -5221,126 +5752,156 @@
       <c r="AK35">
         <v>1</v>
       </c>
+      <c r="AL35">
+        <v>1</v>
+      </c>
+      <c r="AM35">
+        <v>1</v>
+      </c>
+      <c r="AN35">
+        <v>1</v>
+      </c>
+      <c r="AO35">
+        <v>1</v>
+      </c>
+      <c r="AP35">
+        <v>1</v>
+      </c>
     </row>
-    <row r="36" spans="1:37">
+    <row r="36" spans="1:42">
       <c r="A36" s="6">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C36">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D36">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="E36">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F36">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G36">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="H36">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="I36">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="J36">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K36">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="L36">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="M36">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="N36">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="O36">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="P36">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q36">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R36">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="S36">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="T36">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="U36">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="V36">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="W36">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="X36">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Y36">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Z36">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AA36">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AB36">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AC36">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AD36">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AE36">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AF36">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AG36">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AH36">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AI36">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AJ36">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AK36">
-        <v>0.5</v>
+        <v>0.75</v>
+      </c>
+      <c r="AL36">
+        <v>0.75</v>
+      </c>
+      <c r="AM36">
+        <v>0.75</v>
+      </c>
+      <c r="AN36">
+        <v>0.75</v>
+      </c>
+      <c r="AO36">
+        <v>0.75</v>
+      </c>
+      <c r="AP36">
+        <v>0.75</v>
       </c>
     </row>
-    <row r="37" spans="1:37">
+    <row r="37" spans="1:42">
       <c r="A37" s="6">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -5447,13 +6008,28 @@
       <c r="AK37">
         <v>1</v>
       </c>
+      <c r="AL37">
+        <v>1</v>
+      </c>
+      <c r="AM37">
+        <v>1</v>
+      </c>
+      <c r="AN37">
+        <v>1</v>
+      </c>
+      <c r="AO37">
+        <v>1</v>
+      </c>
+      <c r="AP37">
+        <v>1</v>
+      </c>
     </row>
-    <row r="38" spans="1:37">
+    <row r="38" spans="1:42">
       <c r="A38" s="6">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C38">
         <v>0.5</v>
@@ -5560,13 +6136,28 @@
       <c r="AK38">
         <v>0.5</v>
       </c>
+      <c r="AL38">
+        <v>0.5</v>
+      </c>
+      <c r="AM38">
+        <v>0.5</v>
+      </c>
+      <c r="AN38">
+        <v>0.5</v>
+      </c>
+      <c r="AO38">
+        <v>0.5</v>
+      </c>
+      <c r="AP38">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="39" s="2" customFormat="1" spans="1:37">
+    <row r="39" s="2" customFormat="1" spans="1:42">
       <c r="A39" s="6">
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C39" s="2">
         <v>15</v>
@@ -5673,153 +6264,188 @@
       <c r="AK39" s="2">
         <v>15</v>
       </c>
+      <c r="AL39" s="2">
+        <v>15</v>
+      </c>
+      <c r="AM39" s="2">
+        <v>15</v>
+      </c>
+      <c r="AN39" s="2">
+        <v>15</v>
+      </c>
+      <c r="AO39" s="2">
+        <v>15</v>
+      </c>
+      <c r="AP39" s="2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="40" spans="2:37">
+    <row r="40" spans="2:42">
       <c r="B40" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C40" s="8">
         <f>SUM(C3:C39)</f>
-        <v>69.05</v>
+        <v>71.3</v>
       </c>
       <c r="D40" s="8">
         <f>SUM(D3:D39)</f>
-        <v>69.05</v>
+        <v>71.3</v>
       </c>
       <c r="E40" s="8">
         <f>SUM(E3:E39)</f>
-        <v>69.05</v>
+        <v>71.3</v>
       </c>
       <c r="F40" s="8">
         <f>SUM(F3:F39)</f>
-        <v>69.05</v>
+        <v>71.3</v>
       </c>
       <c r="G40" s="8">
         <f>SUM(G3:G39)</f>
-        <v>69.05</v>
+        <v>71.3</v>
       </c>
       <c r="H40" s="8">
         <f t="shared" ref="H40:AM40" si="0">SUM(H3:H39)</f>
-        <v>69.05</v>
+        <v>71.3</v>
       </c>
       <c r="I40" s="8">
         <f t="shared" si="0"/>
-        <v>69.05</v>
+        <v>71.3</v>
       </c>
       <c r="J40" s="8">
         <f t="shared" si="0"/>
-        <v>69.05</v>
+        <v>71.3</v>
       </c>
       <c r="K40" s="8">
         <f t="shared" si="0"/>
-        <v>69.05</v>
+        <v>71.3</v>
       </c>
       <c r="L40" s="8">
         <f t="shared" si="0"/>
-        <v>69.05</v>
+        <v>71.3</v>
       </c>
       <c r="M40" s="8">
         <f t="shared" si="0"/>
-        <v>69.05</v>
+        <v>71.3</v>
       </c>
       <c r="N40" s="8">
         <f t="shared" si="0"/>
-        <v>69.05</v>
+        <v>71.3</v>
       </c>
       <c r="O40" s="8">
         <f t="shared" si="0"/>
-        <v>69.05</v>
+        <v>71.3</v>
       </c>
       <c r="P40" s="8">
         <f t="shared" si="0"/>
-        <v>69.05</v>
+        <v>71.3</v>
       </c>
       <c r="Q40" s="8">
         <f t="shared" si="0"/>
-        <v>69.05</v>
+        <v>71.3</v>
       </c>
       <c r="R40" s="8">
         <f t="shared" si="0"/>
-        <v>69.05</v>
+        <v>71.3</v>
       </c>
       <c r="S40" s="8">
         <f t="shared" si="0"/>
-        <v>69.05</v>
+        <v>71.3</v>
       </c>
       <c r="T40" s="8">
         <f t="shared" si="0"/>
-        <v>69.05</v>
+        <v>71.3</v>
       </c>
       <c r="U40" s="8">
         <f t="shared" si="0"/>
-        <v>69.05</v>
+        <v>71.3</v>
       </c>
       <c r="V40" s="8">
         <f t="shared" si="0"/>
-        <v>69.05</v>
+        <v>71.3</v>
       </c>
       <c r="W40" s="8">
         <f t="shared" si="0"/>
-        <v>69.05</v>
+        <v>71.3</v>
       </c>
       <c r="X40" s="8">
         <f t="shared" si="0"/>
-        <v>69.05</v>
+        <v>71.3</v>
       </c>
       <c r="Y40" s="8">
         <f t="shared" si="0"/>
-        <v>69.05</v>
+        <v>71.3</v>
       </c>
       <c r="Z40" s="8">
         <f t="shared" si="0"/>
-        <v>69.05</v>
+        <v>71.3</v>
       </c>
       <c r="AA40" s="8">
         <f t="shared" si="0"/>
-        <v>69.05</v>
+        <v>71.3</v>
       </c>
       <c r="AB40" s="8">
         <f t="shared" si="0"/>
-        <v>69.05</v>
+        <v>71.3</v>
       </c>
       <c r="AC40" s="8">
-        <f>SUM(AC3:AC39)</f>
-        <v>69.05</v>
+        <f t="shared" si="0"/>
+        <v>71.3</v>
       </c>
       <c r="AD40" s="8">
-        <f>SUM(AD3:AD39)</f>
-        <v>69.05</v>
+        <f t="shared" si="0"/>
+        <v>71.3</v>
       </c>
       <c r="AE40" s="8">
-        <f>SUM(AE3:AE39)</f>
-        <v>69.05</v>
+        <f t="shared" si="0"/>
+        <v>71.3</v>
       </c>
       <c r="AF40" s="8">
-        <f>SUM(AF3:AF39)</f>
-        <v>69.05</v>
+        <f t="shared" si="0"/>
+        <v>71.3</v>
       </c>
       <c r="AG40" s="8">
-        <f>SUM(AG3:AG39)</f>
-        <v>69.05</v>
+        <f t="shared" si="0"/>
+        <v>71.3</v>
       </c>
       <c r="AH40" s="8">
-        <f>SUM(AH3:AH39)</f>
-        <v>69.05</v>
+        <f t="shared" si="0"/>
+        <v>71.3</v>
       </c>
       <c r="AI40" s="8">
-        <f>SUM(AI3:AI39)</f>
-        <v>69.05</v>
+        <f t="shared" si="0"/>
+        <v>71.3</v>
       </c>
       <c r="AJ40" s="8">
-        <f>SUM(AJ3:AJ39)</f>
-        <v>69.05</v>
+        <f t="shared" si="0"/>
+        <v>71.3</v>
       </c>
       <c r="AK40" s="8">
-        <f>SUM(AK3:AK39)</f>
-        <v>69.05</v>
+        <f t="shared" si="0"/>
+        <v>71.3</v>
+      </c>
+      <c r="AL40" s="8">
+        <f>SUM(AL3:AL39)</f>
+        <v>71.3</v>
+      </c>
+      <c r="AM40" s="8">
+        <f>SUM(AM3:AM39)</f>
+        <v>71.3</v>
+      </c>
+      <c r="AN40" s="8">
+        <f>SUM(AN3:AN39)</f>
+        <v>71.3</v>
+      </c>
+      <c r="AO40" s="8">
+        <f>SUM(AO3:AO39)</f>
+        <v>71.3</v>
+      </c>
+      <c r="AP40" s="8">
+        <f>SUM(AP3:AP39)</f>
+        <v>71.3</v>
       </c>
     </row>
-    <row r="41" spans="3:37">
+    <row r="41" spans="3:42">
       <c r="C41" t="str">
         <f>IF(C40=52.3,"小",IF(C40=52.55,"中",IF(C40=55.55,"大","错误")))</f>
         <v>错误</v>
@@ -5925,39 +6551,59 @@
         <v>错误</v>
       </c>
       <c r="AC41" t="str">
-        <f>IF(AC40=52.3,"小",IF(AC40=52.55,"中",IF(AC40=55.55,"大","错误")))</f>
+        <f t="shared" si="1"/>
         <v>错误</v>
       </c>
       <c r="AD41" t="str">
-        <f>IF(AD40=52.3,"小",IF(AD40=52.55,"中",IF(AD40=55.55,"大","错误")))</f>
+        <f t="shared" si="1"/>
         <v>错误</v>
       </c>
       <c r="AE41" t="str">
-        <f>IF(AE40=52.3,"小",IF(AE40=52.55,"中",IF(AE40=55.55,"大","错误")))</f>
+        <f t="shared" si="1"/>
         <v>错误</v>
       </c>
       <c r="AF41" t="str">
-        <f>IF(AF40=52.3,"小",IF(AF40=52.55,"中",IF(AF40=55.55,"大","错误")))</f>
+        <f t="shared" si="1"/>
         <v>错误</v>
       </c>
       <c r="AG41" t="str">
-        <f>IF(AG40=52.3,"小",IF(AG40=52.55,"中",IF(AG40=55.55,"大","错误")))</f>
+        <f t="shared" si="1"/>
         <v>错误</v>
       </c>
       <c r="AH41" t="str">
-        <f>IF(AH40=52.3,"小",IF(AH40=52.55,"中",IF(AH40=55.55,"大","错误")))</f>
+        <f t="shared" si="1"/>
         <v>错误</v>
       </c>
       <c r="AI41" t="str">
-        <f>IF(AI40=52.3,"小",IF(AI40=52.55,"中",IF(AI40=55.55,"大","错误")))</f>
+        <f t="shared" si="1"/>
         <v>错误</v>
       </c>
       <c r="AJ41" t="str">
-        <f>IF(AJ40=52.3,"小",IF(AJ40=52.55,"中",IF(AJ40=55.55,"大","错误")))</f>
+        <f t="shared" si="1"/>
         <v>错误</v>
       </c>
       <c r="AK41" t="str">
-        <f>IF(AK40=52.3,"小",IF(AK40=52.55,"中",IF(AK40=55.55,"大","错误")))</f>
+        <f t="shared" si="1"/>
+        <v>错误</v>
+      </c>
+      <c r="AL41" t="str">
+        <f>IF(AL40=52.3,"小",IF(AL40=52.55,"中",IF(AL40=55.55,"大","错误")))</f>
+        <v>错误</v>
+      </c>
+      <c r="AM41" t="str">
+        <f>IF(AM40=52.3,"小",IF(AM40=52.55,"中",IF(AM40=55.55,"大","错误")))</f>
+        <v>错误</v>
+      </c>
+      <c r="AN41" t="str">
+        <f>IF(AN40=52.3,"小",IF(AN40=52.55,"中",IF(AN40=55.55,"大","错误")))</f>
+        <v>错误</v>
+      </c>
+      <c r="AO41" t="str">
+        <f>IF(AO40=52.3,"小",IF(AO40=52.55,"中",IF(AO40=55.55,"大","错误")))</f>
+        <v>错误</v>
+      </c>
+      <c r="AP41" t="str">
+        <f>IF(AP40=52.3,"小",IF(AP40=52.55,"中",IF(AP40=55.55,"大","错误")))</f>
         <v>错误</v>
       </c>
     </row>

--- a/config/门店规格.xlsx
+++ b/config/门店规格.xlsx
@@ -124,12 +124,12 @@
     <t>高铁南地铁店</t>
   </si>
   <si>
+    <t>桥林</t>
+  </si>
+  <si>
     <t>淮安花漾城</t>
   </si>
   <si>
-    <t>淮安旺角大学城</t>
-  </si>
-  <si>
     <t>淮安苏宁广场</t>
   </si>
   <si>
@@ -142,6 +142,9 @@
     <t>淮安信息学院</t>
   </si>
   <si>
+    <t>淮安镇淮楼</t>
+  </si>
+  <si>
     <t>绝味鸭脖</t>
   </si>
   <si>
@@ -244,10 +247,7 @@
     <t>黑鸭豆干</t>
   </si>
   <si>
-    <t>藤椒鸭翅中</t>
-  </si>
-  <si>
-    <t>藤椒鸡翅尖</t>
+    <t>虾球</t>
   </si>
   <si>
     <t>饮料</t>
@@ -262,8 +262,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -313,19 +313,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -358,46 +413,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -411,30 +427,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -443,7 +435,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -464,6 +464,108 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -476,109 +578,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,13 +596,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,19 +614,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,13 +626,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,10 +669,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -689,30 +687,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,6 +729,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -766,7 +766,7 @@
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -778,134 +778,134 @@
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -917,6 +917,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -932,6 +935,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1252,10 +1258,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AP41"/>
+  <dimension ref="A1:AQ40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AK3" sqref="AK3:AP41"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1267,160 +1273,163 @@
     <col min="5" max="5" width="10.1111111111111" customWidth="1"/>
     <col min="6" max="7" width="8" customWidth="1"/>
     <col min="8" max="8" width="6.11111111111111" customWidth="1"/>
-    <col min="9" max="9" width="12.5555555555556" customWidth="1"/>
-    <col min="10" max="10" width="14.8888888888889" customWidth="1"/>
-    <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="12" max="12" width="10.1111111111111" customWidth="1"/>
-    <col min="13" max="13" width="8" customWidth="1"/>
-    <col min="14" max="14" width="7.22222222222222" customWidth="1"/>
-    <col min="15" max="16" width="10.1111111111111" customWidth="1"/>
-    <col min="17" max="18" width="8" customWidth="1"/>
-    <col min="19" max="21" width="10.1111111111111" customWidth="1"/>
-    <col min="22" max="22" width="17.2222222222222" customWidth="1"/>
-    <col min="23" max="23" width="10.1111111111111" customWidth="1"/>
-    <col min="24" max="24" width="8" customWidth="1"/>
-    <col min="25" max="25" width="10.1111111111111" customWidth="1"/>
-    <col min="26" max="27" width="14.8888888888889" customWidth="1"/>
-    <col min="28" max="28" width="12.5555555555556" customWidth="1"/>
-    <col min="30" max="30" width="7.22222222222222" customWidth="1"/>
-    <col min="31" max="31" width="10.1111111111111" customWidth="1"/>
-    <col min="32" max="32" width="14.8888888888889" customWidth="1"/>
-    <col min="33" max="33" width="12.5555555555556" customWidth="1"/>
-    <col min="34" max="36" width="14.8888888888889" customWidth="1"/>
-    <col min="37" max="37" width="12.5555555555556" customWidth="1"/>
-    <col min="38" max="38" width="17.2222222222222" customWidth="1"/>
+    <col min="9" max="10" width="12.5555555555556" customWidth="1"/>
+    <col min="11" max="11" width="14.8888888888889" customWidth="1"/>
+    <col min="12" max="12" width="8" customWidth="1"/>
+    <col min="13" max="13" width="10.1111111111111" customWidth="1"/>
+    <col min="14" max="14" width="8" customWidth="1"/>
+    <col min="15" max="15" width="6.11111111111111" customWidth="1"/>
+    <col min="16" max="17" width="10.1111111111111" customWidth="1"/>
+    <col min="18" max="19" width="8" customWidth="1"/>
+    <col min="20" max="22" width="10.1111111111111" customWidth="1"/>
+    <col min="23" max="23" width="17.2222222222222" customWidth="1"/>
+    <col min="24" max="24" width="10.1111111111111" customWidth="1"/>
+    <col min="25" max="25" width="8" customWidth="1"/>
+    <col min="26" max="26" width="10.1111111111111" customWidth="1"/>
+    <col min="27" max="28" width="14.8888888888889" customWidth="1"/>
+    <col min="29" max="29" width="8" customWidth="1"/>
+    <col min="30" max="30" width="10.1111111111111" customWidth="1"/>
+    <col min="31" max="33" width="14.8888888888889" customWidth="1"/>
+    <col min="34" max="35" width="10.1111111111111" customWidth="1"/>
+    <col min="36" max="36" width="14.8888888888889" customWidth="1"/>
+    <col min="37" max="37" width="6.11111111111111" style="4" customWidth="1"/>
+    <col min="38" max="38" width="12.5555555555556" customWidth="1"/>
     <col min="39" max="39" width="14.8888888888889" customWidth="1"/>
     <col min="40" max="40" width="12.5555555555556" customWidth="1"/>
     <col min="41" max="42" width="14.8888888888889" customWidth="1"/>
+    <col min="43" max="43" width="12.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:42">
-      <c r="C1" s="4">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4">
-        <v>2</v>
-      </c>
-      <c r="E1" s="4">
+    <row r="1" spans="3:43">
+      <c r="C1" s="5">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5">
         <v>3</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="5">
         <v>4</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="5">
         <v>5</v>
       </c>
-      <c r="H1" s="4">
+      <c r="H1" s="5">
         <v>6</v>
       </c>
-      <c r="I1" s="4">
+      <c r="I1" s="5">
         <v>7</v>
       </c>
-      <c r="J1" s="4">
+      <c r="J1" s="5">
         <v>8</v>
       </c>
-      <c r="K1" s="4">
+      <c r="K1" s="5">
         <v>9</v>
       </c>
-      <c r="L1" s="4">
-        <v>10</v>
-      </c>
-      <c r="M1" s="4">
+      <c r="L1" s="5">
+        <v>10</v>
+      </c>
+      <c r="M1" s="5">
         <v>11</v>
       </c>
-      <c r="N1" s="4">
+      <c r="N1" s="5">
         <v>12</v>
       </c>
-      <c r="O1" s="4">
+      <c r="O1" s="5">
         <v>13</v>
       </c>
-      <c r="P1" s="4">
+      <c r="P1" s="5">
         <v>14</v>
       </c>
-      <c r="Q1" s="4">
+      <c r="Q1" s="5">
         <v>15</v>
       </c>
-      <c r="R1" s="4">
+      <c r="R1" s="5">
         <v>16</v>
       </c>
-      <c r="S1" s="4">
+      <c r="S1" s="5">
         <v>17</v>
       </c>
-      <c r="T1" s="4">
+      <c r="T1" s="5">
         <v>18</v>
       </c>
-      <c r="U1" s="4">
+      <c r="U1" s="5">
         <v>19</v>
       </c>
-      <c r="V1" s="4">
+      <c r="V1" s="5">
         <v>20</v>
       </c>
-      <c r="W1" s="4">
+      <c r="W1" s="5">
         <v>21</v>
       </c>
-      <c r="X1" s="4">
+      <c r="X1" s="5">
         <v>22</v>
       </c>
-      <c r="Y1" s="4">
+      <c r="Y1" s="5">
         <v>23</v>
       </c>
-      <c r="Z1" s="4">
+      <c r="Z1" s="5">
         <v>24</v>
       </c>
-      <c r="AA1" s="4">
+      <c r="AA1" s="5">
         <v>25</v>
       </c>
-      <c r="AB1" s="4">
+      <c r="AB1" s="5">
         <v>26</v>
       </c>
-      <c r="AC1" s="4">
+      <c r="AC1" s="5">
         <v>27</v>
       </c>
-      <c r="AD1" s="4">
+      <c r="AD1" s="5">
         <v>28</v>
       </c>
-      <c r="AE1" s="4">
+      <c r="AE1" s="5">
         <v>29</v>
       </c>
-      <c r="AF1" s="4">
+      <c r="AF1" s="5">
         <v>30</v>
       </c>
-      <c r="AG1" s="4">
+      <c r="AG1" s="5">
         <v>31</v>
       </c>
-      <c r="AH1" s="4">
+      <c r="AH1" s="5">
         <v>32</v>
       </c>
-      <c r="AI1" s="4">
+      <c r="AI1" s="5">
         <v>33</v>
       </c>
-      <c r="AJ1" s="4">
+      <c r="AJ1" s="5">
         <v>34</v>
       </c>
-      <c r="AK1" s="4">
+      <c r="AK1" s="5">
         <v>35</v>
       </c>
-      <c r="AL1" s="4">
+      <c r="AL1" s="5">
         <v>36</v>
       </c>
-      <c r="AM1" s="4">
+      <c r="AM1" s="5">
         <v>37</v>
       </c>
-      <c r="AN1" s="4">
+      <c r="AN1" s="5">
         <v>38</v>
       </c>
-      <c r="AO1" s="4">
+      <c r="AO1" s="5">
         <v>39</v>
       </c>
-      <c r="AP1" s="4">
+      <c r="AP1" s="5">
         <v>40</v>
       </c>
+      <c r="AQ1" s="5">
+        <v>41</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:42">
-      <c r="A2" s="5" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:43">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1525,7 +1534,7 @@
       <c r="AJ2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AK2" s="10" t="s">
         <v>36</v>
       </c>
       <c r="AL2" s="1" t="s">
@@ -1543,13 +1552,16 @@
       <c r="AP2" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="AQ2" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="3" spans="1:42">
-      <c r="A3" s="6">
+    <row r="3" spans="1:43">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1671,13 +1683,16 @@
       <c r="AP3">
         <v>2</v>
       </c>
+      <c r="AQ3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:42">
-      <c r="A4" s="6">
+    <row r="4" spans="1:43">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1799,13 +1814,16 @@
       <c r="AP4">
         <v>2</v>
       </c>
+      <c r="AQ4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:42">
-      <c r="A5" s="6">
+    <row r="5" spans="1:43">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5">
         <v>1.5</v>
@@ -1927,13 +1945,16 @@
       <c r="AP5">
         <v>1.5</v>
       </c>
+      <c r="AQ5">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="6" spans="1:42">
-      <c r="A6" s="6">
+    <row r="6" spans="1:43">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2055,13 +2076,16 @@
       <c r="AP6">
         <v>1</v>
       </c>
+      <c r="AQ6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:42">
-      <c r="A7" s="6">
+    <row r="7" spans="1:43">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7">
         <v>10</v>
@@ -2183,13 +2207,16 @@
       <c r="AP7">
         <v>10</v>
       </c>
+      <c r="AQ7">
+        <v>10</v>
+      </c>
     </row>
-    <row r="8" spans="1:42">
-      <c r="A8" s="6">
+    <row r="8" spans="1:43">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8">
         <v>0.5</v>
@@ -2311,13 +2338,16 @@
       <c r="AP8">
         <v>0.5</v>
       </c>
+      <c r="AQ8">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="9" spans="1:42">
-      <c r="A9" s="6">
+    <row r="9" spans="1:43">
+      <c r="A9" s="7">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9">
         <v>0.5</v>
@@ -2439,141 +2469,147 @@
       <c r="AP9">
         <v>0.5</v>
       </c>
+      <c r="AQ9">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="10" spans="1:42">
-      <c r="A10" s="6">
+    <row r="10" spans="1:43">
+      <c r="A10" s="7">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="E10" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="F10" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="G10" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="J10" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="K10" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="L10" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="M10" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="N10" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="O10" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="P10" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="Q10" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="R10" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="S10" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="T10" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="U10" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="V10" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="W10" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="X10" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="Y10" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="Z10" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="AA10" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="AB10" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="AC10" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="AD10" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="AE10" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="AF10" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="AG10" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="AH10" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="AI10" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="AJ10" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="AK10" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="AL10" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="AM10" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="AN10" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="AO10" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="AP10" s="7">
+        <v>50</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="E10" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="F10" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="I10" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="J10" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="K10" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L10" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="M10" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="N10" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="O10" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="P10" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="R10" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="S10" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="T10" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="U10" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="V10" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="W10" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="X10" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="Y10" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="Z10" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="AA10" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="AB10" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="AC10" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="AD10" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="AE10" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="AF10" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="AG10" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="AH10" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="AI10" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="AJ10" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="AK10" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="AL10" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="AM10" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="AN10" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="AO10" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="AP10" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="AQ10" s="8">
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:42">
-      <c r="A11" s="6">
+    <row r="11" spans="1:43">
+      <c r="A11" s="7">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C11">
         <v>0.5</v>
@@ -2695,13 +2731,16 @@
       <c r="AP11">
         <v>0.5</v>
       </c>
+      <c r="AQ11">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="12" spans="1:42">
-      <c r="A12" s="6">
+    <row r="12" spans="1:43">
+      <c r="A12" s="7">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C12">
         <v>1.5</v>
@@ -2823,13 +2862,16 @@
       <c r="AP12">
         <v>1.5</v>
       </c>
+      <c r="AQ12">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="13" spans="1:42">
-      <c r="A13" s="6">
+    <row r="13" spans="1:43">
+      <c r="A13" s="7">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C13">
         <v>1.5</v>
@@ -2951,13 +2993,16 @@
       <c r="AP13">
         <v>1.5</v>
       </c>
+      <c r="AQ13">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="14" spans="1:42">
-      <c r="A14" s="6">
+    <row r="14" spans="1:43">
+      <c r="A14" s="7">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C14">
         <v>0.5</v>
@@ -3079,13 +3124,16 @@
       <c r="AP14">
         <v>0.5</v>
       </c>
+      <c r="AQ14">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="15" spans="1:42">
-      <c r="A15" s="6">
+    <row r="15" spans="1:43">
+      <c r="A15" s="7">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -3207,13 +3255,16 @@
       <c r="AP15">
         <v>1</v>
       </c>
+      <c r="AQ15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:42">
-      <c r="A16" s="6">
+    <row r="16" spans="1:43">
+      <c r="A16" s="7">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C16">
         <v>1.5</v>
@@ -3335,13 +3386,16 @@
       <c r="AP16">
         <v>1.5</v>
       </c>
+      <c r="AQ16">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="17" spans="1:42">
-      <c r="A17" s="6">
+    <row r="17" spans="1:43">
+      <c r="A17" s="7">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C17">
         <v>1.5</v>
@@ -3463,13 +3517,16 @@
       <c r="AP17">
         <v>1.5</v>
       </c>
+      <c r="AQ17">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="18" spans="1:42">
-      <c r="A18" s="6">
+    <row r="18" spans="1:43">
+      <c r="A18" s="7">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C18">
         <v>0.5</v>
@@ -3591,13 +3648,16 @@
       <c r="AP18">
         <v>0.5</v>
       </c>
+      <c r="AQ18">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="19" spans="1:42">
-      <c r="A19" s="6">
+    <row r="19" spans="1:43">
+      <c r="A19" s="7">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C19">
         <v>0.75</v>
@@ -3719,13 +3779,16 @@
       <c r="AP19">
         <v>0.75</v>
       </c>
+      <c r="AQ19">
+        <v>0.75</v>
+      </c>
     </row>
-    <row r="20" spans="1:42">
-      <c r="A20" s="6">
+    <row r="20" spans="1:43">
+      <c r="A20" s="7">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C20">
         <v>0.75</v>
@@ -3847,13 +3910,16 @@
       <c r="AP20">
         <v>0.75</v>
       </c>
+      <c r="AQ20">
+        <v>0.75</v>
+      </c>
     </row>
-    <row r="21" spans="1:42">
-      <c r="A21" s="6">
+    <row r="21" spans="1:43">
+      <c r="A21" s="7">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C21">
         <v>1.5</v>
@@ -3975,141 +4041,147 @@
       <c r="AP21">
         <v>1.5</v>
       </c>
+      <c r="AQ21">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="22" spans="1:42">
-      <c r="A22" s="6">
+    <row r="22" spans="1:43">
+      <c r="A22" s="7">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="D22" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="E22" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="F22" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="G22" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="J22" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="K22" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="L22" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="M22" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="N22" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="O22" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="P22" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="Q22" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="R22" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="S22" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="T22" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="U22" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="V22" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="W22" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="X22" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="Y22" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="Z22" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="AA22" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="AB22" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="AC22" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="AD22" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="AE22" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="AF22" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="AG22" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="AH22" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="AI22" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="AJ22" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="AK22" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="AL22" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="AM22" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="AN22" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="AO22" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="AP22" s="7">
+        <v>62</v>
+      </c>
+      <c r="C22" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="F22" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="G22" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="H22" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="I22" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="J22" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="K22" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="L22" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="M22" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="N22" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="O22" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="P22" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="R22" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="S22" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="T22" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="U22" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="V22" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="W22" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="X22" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="Y22" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="Z22" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="AA22" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="AB22" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="AC22" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="AD22" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="AE22" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="AF22" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="AG22" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="AH22" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="AI22" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="AJ22" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="AK22" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="AL22" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="AM22" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="AN22" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="AO22" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="AP22" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="AQ22" s="8">
         <v>0.75</v>
       </c>
     </row>
-    <row r="23" spans="1:42">
-      <c r="A23" s="6">
+    <row r="23" spans="1:43">
+      <c r="A23" s="7">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C23">
         <v>0.5</v>
@@ -4231,13 +4303,16 @@
       <c r="AP23">
         <v>0.5</v>
       </c>
+      <c r="AQ23">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="24" spans="1:42">
-      <c r="A24" s="6">
+    <row r="24" spans="1:43">
+      <c r="A24" s="7">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -4359,13 +4434,16 @@
       <c r="AP24">
         <v>1</v>
       </c>
+      <c r="AQ24">
+        <v>1</v>
+      </c>
     </row>
-    <row r="25" spans="1:42">
-      <c r="A25" s="6">
+    <row r="25" spans="1:43">
+      <c r="A25" s="7">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -4487,13 +4565,16 @@
       <c r="AP25">
         <v>1</v>
       </c>
+      <c r="AQ25">
+        <v>1</v>
+      </c>
     </row>
-    <row r="26" spans="1:42">
-      <c r="A26" s="6">
+    <row r="26" spans="1:43">
+      <c r="A26" s="7">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -4615,13 +4696,16 @@
       <c r="AP26">
         <v>2</v>
       </c>
+      <c r="AQ26">
+        <v>2</v>
+      </c>
     </row>
-    <row r="27" spans="1:42">
-      <c r="A27" s="6">
+    <row r="27" spans="1:43">
+      <c r="A27" s="7">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -4743,13 +4827,16 @@
       <c r="AP27">
         <v>2</v>
       </c>
+      <c r="AQ27">
+        <v>2</v>
+      </c>
     </row>
-    <row r="28" spans="1:42">
-      <c r="A28" s="6">
+    <row r="28" spans="1:43">
+      <c r="A28" s="7">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C28">
         <v>1.5</v>
@@ -4871,13 +4958,16 @@
       <c r="AP28">
         <v>1.5</v>
       </c>
+      <c r="AQ28">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="29" spans="1:42">
-      <c r="A29" s="6">
+    <row r="29" spans="1:43">
+      <c r="A29" s="7">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C29">
         <v>10</v>
@@ -4999,13 +5089,16 @@
       <c r="AP29">
         <v>10</v>
       </c>
+      <c r="AQ29">
+        <v>10</v>
+      </c>
     </row>
-    <row r="30" spans="1:42">
-      <c r="A30" s="6">
+    <row r="30" spans="1:43">
+      <c r="A30" s="7">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C30">
         <v>1.5</v>
@@ -5127,13 +5220,16 @@
       <c r="AP30">
         <v>1.5</v>
       </c>
+      <c r="AQ30">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="31" spans="1:42">
-      <c r="A31" s="6">
+    <row r="31" spans="1:43">
+      <c r="A31" s="7">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C31">
         <v>0.5</v>
@@ -5255,13 +5351,16 @@
       <c r="AP31">
         <v>0.5</v>
       </c>
+      <c r="AQ31">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="32" spans="1:42">
-      <c r="A32" s="6">
+    <row r="32" spans="1:43">
+      <c r="A32" s="7">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C32">
         <v>1.5</v>
@@ -5383,13 +5482,16 @@
       <c r="AP32">
         <v>1.5</v>
       </c>
+      <c r="AQ32">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="33" spans="1:42">
-      <c r="A33" s="6">
+    <row r="33" spans="1:43">
+      <c r="A33" s="7">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C33">
         <v>0.15</v>
@@ -5511,13 +5613,16 @@
       <c r="AP33">
         <v>0.15</v>
       </c>
+      <c r="AQ33">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="34" spans="1:42">
-      <c r="A34" s="6">
+    <row r="34" spans="1:43">
+      <c r="A34" s="7">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C34">
         <v>0.15</v>
@@ -5639,13 +5744,16 @@
       <c r="AP34">
         <v>0.15</v>
       </c>
+      <c r="AQ34">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="35" spans="1:42">
-      <c r="A35" s="6">
+    <row r="35" spans="1:43">
+      <c r="A35" s="7">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -5767,13 +5875,16 @@
       <c r="AP35">
         <v>1</v>
       </c>
+      <c r="AQ35">
+        <v>1</v>
+      </c>
     </row>
-    <row r="36" spans="1:42">
-      <c r="A36" s="6">
+    <row r="36" spans="1:43">
+      <c r="A36" s="7">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C36">
         <v>0.75</v>
@@ -5895,715 +6006,604 @@
       <c r="AP36">
         <v>0.75</v>
       </c>
+      <c r="AQ36">
+        <v>0.75</v>
+      </c>
     </row>
-    <row r="37" spans="1:42">
-      <c r="A37" s="6">
+    <row r="37" spans="1:43">
+      <c r="A37" s="7">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M37">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O37">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P37">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q37">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R37">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S37">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="T37">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U37">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V37">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="W37">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X37">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Y37">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Z37">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AA37">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AB37">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AC37">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AD37">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AE37">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AF37">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AG37">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AH37">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AI37">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AJ37">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AK37">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AL37">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AM37">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AN37">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO37">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP37">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="AQ37">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="1:42">
-      <c r="A38" s="6">
+    <row r="38" s="2" customFormat="1" spans="1:43">
+      <c r="A38" s="7">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38">
-        <v>0.5</v>
-      </c>
-      <c r="D38">
-        <v>0.5</v>
-      </c>
-      <c r="E38">
-        <v>0.5</v>
-      </c>
-      <c r="F38">
-        <v>0.5</v>
-      </c>
-      <c r="G38">
-        <v>0.5</v>
-      </c>
-      <c r="H38">
-        <v>0.5</v>
-      </c>
-      <c r="I38">
-        <v>0.5</v>
-      </c>
-      <c r="J38">
-        <v>0.5</v>
-      </c>
-      <c r="K38">
-        <v>0.5</v>
-      </c>
-      <c r="L38">
-        <v>0.5</v>
-      </c>
-      <c r="M38">
-        <v>0.5</v>
-      </c>
-      <c r="N38">
-        <v>0.5</v>
-      </c>
-      <c r="O38">
-        <v>0.5</v>
-      </c>
-      <c r="P38">
-        <v>0.5</v>
-      </c>
-      <c r="Q38">
-        <v>0.5</v>
-      </c>
-      <c r="R38">
-        <v>0.5</v>
-      </c>
-      <c r="S38">
-        <v>0.5</v>
-      </c>
-      <c r="T38">
-        <v>0.5</v>
-      </c>
-      <c r="U38">
-        <v>0.5</v>
-      </c>
-      <c r="V38">
-        <v>0.5</v>
-      </c>
-      <c r="W38">
-        <v>0.5</v>
-      </c>
-      <c r="X38">
-        <v>0.5</v>
-      </c>
-      <c r="Y38">
-        <v>0.5</v>
-      </c>
-      <c r="Z38">
-        <v>0.5</v>
-      </c>
-      <c r="AA38">
-        <v>0.5</v>
-      </c>
-      <c r="AB38">
-        <v>0.5</v>
-      </c>
-      <c r="AC38">
-        <v>0.5</v>
-      </c>
-      <c r="AD38">
-        <v>0.5</v>
-      </c>
-      <c r="AE38">
-        <v>0.5</v>
-      </c>
-      <c r="AF38">
-        <v>0.5</v>
-      </c>
-      <c r="AG38">
-        <v>0.5</v>
-      </c>
-      <c r="AH38">
-        <v>0.5</v>
-      </c>
-      <c r="AI38">
-        <v>0.5</v>
-      </c>
-      <c r="AJ38">
-        <v>0.5</v>
-      </c>
-      <c r="AK38">
-        <v>0.5</v>
-      </c>
-      <c r="AL38">
-        <v>0.5</v>
-      </c>
-      <c r="AM38">
-        <v>0.5</v>
-      </c>
-      <c r="AN38">
-        <v>0.5</v>
-      </c>
-      <c r="AO38">
-        <v>0.5</v>
-      </c>
-      <c r="AP38">
-        <v>0.5</v>
+      <c r="B38" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="2">
+        <v>15</v>
+      </c>
+      <c r="D38" s="2">
+        <v>15</v>
+      </c>
+      <c r="E38" s="2">
+        <v>15</v>
+      </c>
+      <c r="F38" s="2">
+        <v>15</v>
+      </c>
+      <c r="G38" s="2">
+        <v>15</v>
+      </c>
+      <c r="H38" s="2">
+        <v>15</v>
+      </c>
+      <c r="I38" s="2">
+        <v>15</v>
+      </c>
+      <c r="J38" s="2">
+        <v>15</v>
+      </c>
+      <c r="K38" s="2">
+        <v>15</v>
+      </c>
+      <c r="L38" s="2">
+        <v>15</v>
+      </c>
+      <c r="M38" s="2">
+        <v>15</v>
+      </c>
+      <c r="N38" s="2">
+        <v>15</v>
+      </c>
+      <c r="O38" s="2">
+        <v>15</v>
+      </c>
+      <c r="P38" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>15</v>
+      </c>
+      <c r="R38" s="2">
+        <v>15</v>
+      </c>
+      <c r="S38" s="2">
+        <v>15</v>
+      </c>
+      <c r="T38" s="2">
+        <v>15</v>
+      </c>
+      <c r="U38" s="2">
+        <v>15</v>
+      </c>
+      <c r="V38" s="2">
+        <v>15</v>
+      </c>
+      <c r="W38" s="2">
+        <v>15</v>
+      </c>
+      <c r="X38" s="2">
+        <v>15</v>
+      </c>
+      <c r="Y38" s="2">
+        <v>15</v>
+      </c>
+      <c r="Z38" s="2">
+        <v>15</v>
+      </c>
+      <c r="AA38" s="2">
+        <v>15</v>
+      </c>
+      <c r="AB38" s="2">
+        <v>15</v>
+      </c>
+      <c r="AC38" s="2">
+        <v>15</v>
+      </c>
+      <c r="AD38" s="2">
+        <v>15</v>
+      </c>
+      <c r="AE38" s="2">
+        <v>15</v>
+      </c>
+      <c r="AF38" s="2">
+        <v>15</v>
+      </c>
+      <c r="AG38" s="2">
+        <v>15</v>
+      </c>
+      <c r="AH38" s="2">
+        <v>15</v>
+      </c>
+      <c r="AI38" s="2">
+        <v>15</v>
+      </c>
+      <c r="AJ38" s="2">
+        <v>15</v>
+      </c>
+      <c r="AK38" s="2">
+        <v>15</v>
+      </c>
+      <c r="AL38" s="2">
+        <v>15</v>
+      </c>
+      <c r="AM38" s="2">
+        <v>15</v>
+      </c>
+      <c r="AN38" s="2">
+        <v>15</v>
+      </c>
+      <c r="AO38" s="2">
+        <v>15</v>
+      </c>
+      <c r="AP38" s="2">
+        <v>15</v>
+      </c>
+      <c r="AQ38" s="2">
+        <v>15</v>
       </c>
     </row>
-    <row r="39" s="2" customFormat="1" spans="1:42">
-      <c r="A39" s="6">
-        <v>37</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" s="2">
-        <v>15</v>
-      </c>
-      <c r="D39" s="2">
-        <v>15</v>
-      </c>
-      <c r="E39" s="2">
-        <v>15</v>
-      </c>
-      <c r="F39" s="2">
-        <v>15</v>
-      </c>
-      <c r="G39" s="2">
-        <v>15</v>
-      </c>
-      <c r="H39" s="2">
-        <v>15</v>
-      </c>
-      <c r="I39" s="2">
-        <v>15</v>
-      </c>
-      <c r="J39" s="2">
-        <v>15</v>
-      </c>
-      <c r="K39" s="2">
-        <v>15</v>
-      </c>
-      <c r="L39" s="2">
-        <v>15</v>
-      </c>
-      <c r="M39" s="2">
-        <v>15</v>
-      </c>
-      <c r="N39" s="2">
-        <v>15</v>
-      </c>
-      <c r="O39" s="2">
-        <v>15</v>
-      </c>
-      <c r="P39" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q39" s="2">
-        <v>15</v>
-      </c>
-      <c r="R39" s="2">
-        <v>15</v>
-      </c>
-      <c r="S39" s="2">
-        <v>15</v>
-      </c>
-      <c r="T39" s="2">
-        <v>15</v>
-      </c>
-      <c r="U39" s="2">
-        <v>15</v>
-      </c>
-      <c r="V39" s="2">
-        <v>15</v>
-      </c>
-      <c r="W39" s="2">
-        <v>15</v>
-      </c>
-      <c r="X39" s="2">
-        <v>15</v>
-      </c>
-      <c r="Y39" s="2">
-        <v>15</v>
-      </c>
-      <c r="Z39" s="2">
-        <v>15</v>
-      </c>
-      <c r="AA39" s="2">
-        <v>15</v>
-      </c>
-      <c r="AB39" s="2">
-        <v>15</v>
-      </c>
-      <c r="AC39" s="2">
-        <v>15</v>
-      </c>
-      <c r="AD39" s="2">
-        <v>15</v>
-      </c>
-      <c r="AE39" s="2">
-        <v>15</v>
-      </c>
-      <c r="AF39" s="2">
-        <v>15</v>
-      </c>
-      <c r="AG39" s="2">
-        <v>15</v>
-      </c>
-      <c r="AH39" s="2">
-        <v>15</v>
-      </c>
-      <c r="AI39" s="2">
-        <v>15</v>
-      </c>
-      <c r="AJ39" s="2">
-        <v>15</v>
-      </c>
-      <c r="AK39" s="2">
-        <v>15</v>
-      </c>
-      <c r="AL39" s="2">
-        <v>15</v>
-      </c>
-      <c r="AM39" s="2">
-        <v>15</v>
-      </c>
-      <c r="AN39" s="2">
-        <v>15</v>
-      </c>
-      <c r="AO39" s="2">
-        <v>15</v>
-      </c>
-      <c r="AP39" s="2">
-        <v>15</v>
+    <row r="39" spans="2:43">
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="9">
+        <f>SUM(C3:C38)</f>
+        <v>70.3</v>
+      </c>
+      <c r="D39" s="9">
+        <f>SUM(D3:D38)</f>
+        <v>70.3</v>
+      </c>
+      <c r="E39" s="9">
+        <f>SUM(E3:E38)</f>
+        <v>70.3</v>
+      </c>
+      <c r="F39" s="9">
+        <f>SUM(F3:F38)</f>
+        <v>70.3</v>
+      </c>
+      <c r="G39" s="9">
+        <f>SUM(G3:G38)</f>
+        <v>70.3</v>
+      </c>
+      <c r="H39" s="9">
+        <f t="shared" ref="H39:AP39" si="0">SUM(H3:H38)</f>
+        <v>70.3</v>
+      </c>
+      <c r="I39" s="9">
+        <f t="shared" si="0"/>
+        <v>70.3</v>
+      </c>
+      <c r="J39" s="9">
+        <f t="shared" si="0"/>
+        <v>70.3</v>
+      </c>
+      <c r="K39" s="9">
+        <f t="shared" si="0"/>
+        <v>70.3</v>
+      </c>
+      <c r="L39" s="9">
+        <f t="shared" si="0"/>
+        <v>70.3</v>
+      </c>
+      <c r="M39" s="9">
+        <f t="shared" si="0"/>
+        <v>70.3</v>
+      </c>
+      <c r="N39" s="9">
+        <f t="shared" si="0"/>
+        <v>70.3</v>
+      </c>
+      <c r="O39" s="9">
+        <f t="shared" si="0"/>
+        <v>70.3</v>
+      </c>
+      <c r="P39" s="9">
+        <f t="shared" si="0"/>
+        <v>70.3</v>
+      </c>
+      <c r="Q39" s="9">
+        <f t="shared" si="0"/>
+        <v>70.3</v>
+      </c>
+      <c r="R39" s="9">
+        <f t="shared" si="0"/>
+        <v>70.3</v>
+      </c>
+      <c r="S39" s="9">
+        <f t="shared" si="0"/>
+        <v>70.3</v>
+      </c>
+      <c r="T39" s="9">
+        <f t="shared" si="0"/>
+        <v>70.3</v>
+      </c>
+      <c r="U39" s="9">
+        <f t="shared" si="0"/>
+        <v>70.3</v>
+      </c>
+      <c r="V39" s="9">
+        <f t="shared" si="0"/>
+        <v>70.3</v>
+      </c>
+      <c r="W39" s="9">
+        <f t="shared" si="0"/>
+        <v>70.3</v>
+      </c>
+      <c r="X39" s="9">
+        <f t="shared" si="0"/>
+        <v>70.3</v>
+      </c>
+      <c r="Y39" s="9">
+        <f t="shared" si="0"/>
+        <v>70.3</v>
+      </c>
+      <c r="Z39" s="9">
+        <f t="shared" si="0"/>
+        <v>70.3</v>
+      </c>
+      <c r="AA39" s="9">
+        <f t="shared" si="0"/>
+        <v>70.3</v>
+      </c>
+      <c r="AB39" s="9">
+        <f t="shared" si="0"/>
+        <v>70.3</v>
+      </c>
+      <c r="AC39" s="9">
+        <f t="shared" si="0"/>
+        <v>70.3</v>
+      </c>
+      <c r="AD39" s="9">
+        <f t="shared" si="0"/>
+        <v>70.3</v>
+      </c>
+      <c r="AE39" s="9">
+        <f t="shared" si="0"/>
+        <v>70.3</v>
+      </c>
+      <c r="AF39" s="9">
+        <f t="shared" si="0"/>
+        <v>70.3</v>
+      </c>
+      <c r="AG39" s="9">
+        <f t="shared" si="0"/>
+        <v>70.3</v>
+      </c>
+      <c r="AH39" s="9">
+        <f t="shared" si="0"/>
+        <v>70.3</v>
+      </c>
+      <c r="AI39" s="9">
+        <f t="shared" si="0"/>
+        <v>70.3</v>
+      </c>
+      <c r="AJ39" s="9">
+        <f t="shared" si="0"/>
+        <v>70.3</v>
+      </c>
+      <c r="AK39" s="9">
+        <f>SUM(AK3:AK38)</f>
+        <v>70.3</v>
+      </c>
+      <c r="AL39" s="9">
+        <f>SUM(AL3:AL38)</f>
+        <v>70.3</v>
+      </c>
+      <c r="AM39" s="9">
+        <f>SUM(AM3:AM38)</f>
+        <v>70.3</v>
+      </c>
+      <c r="AN39" s="9">
+        <f>SUM(AN3:AN38)</f>
+        <v>70.3</v>
+      </c>
+      <c r="AO39" s="9">
+        <f>SUM(AO3:AO38)</f>
+        <v>70.3</v>
+      </c>
+      <c r="AP39" s="9">
+        <f>SUM(AP3:AP38)</f>
+        <v>70.3</v>
+      </c>
+      <c r="AQ39" s="9">
+        <f>SUM(AQ3:AQ38)</f>
+        <v>70.3</v>
       </c>
     </row>
-    <row r="40" spans="2:42">
-      <c r="B40" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" s="8">
-        <f>SUM(C3:C39)</f>
-        <v>71.3</v>
-      </c>
-      <c r="D40" s="8">
-        <f>SUM(D3:D39)</f>
-        <v>71.3</v>
-      </c>
-      <c r="E40" s="8">
-        <f>SUM(E3:E39)</f>
-        <v>71.3</v>
-      </c>
-      <c r="F40" s="8">
-        <f>SUM(F3:F39)</f>
-        <v>71.3</v>
-      </c>
-      <c r="G40" s="8">
-        <f>SUM(G3:G39)</f>
-        <v>71.3</v>
-      </c>
-      <c r="H40" s="8">
-        <f t="shared" ref="H40:AM40" si="0">SUM(H3:H39)</f>
-        <v>71.3</v>
-      </c>
-      <c r="I40" s="8">
-        <f t="shared" si="0"/>
-        <v>71.3</v>
-      </c>
-      <c r="J40" s="8">
-        <f t="shared" si="0"/>
-        <v>71.3</v>
-      </c>
-      <c r="K40" s="8">
-        <f t="shared" si="0"/>
-        <v>71.3</v>
-      </c>
-      <c r="L40" s="8">
-        <f t="shared" si="0"/>
-        <v>71.3</v>
-      </c>
-      <c r="M40" s="8">
-        <f t="shared" si="0"/>
-        <v>71.3</v>
-      </c>
-      <c r="N40" s="8">
-        <f t="shared" si="0"/>
-        <v>71.3</v>
-      </c>
-      <c r="O40" s="8">
-        <f t="shared" si="0"/>
-        <v>71.3</v>
-      </c>
-      <c r="P40" s="8">
-        <f t="shared" si="0"/>
-        <v>71.3</v>
-      </c>
-      <c r="Q40" s="8">
-        <f t="shared" si="0"/>
-        <v>71.3</v>
-      </c>
-      <c r="R40" s="8">
-        <f t="shared" si="0"/>
-        <v>71.3</v>
-      </c>
-      <c r="S40" s="8">
-        <f t="shared" si="0"/>
-        <v>71.3</v>
-      </c>
-      <c r="T40" s="8">
-        <f t="shared" si="0"/>
-        <v>71.3</v>
-      </c>
-      <c r="U40" s="8">
-        <f t="shared" si="0"/>
-        <v>71.3</v>
-      </c>
-      <c r="V40" s="8">
-        <f t="shared" si="0"/>
-        <v>71.3</v>
-      </c>
-      <c r="W40" s="8">
-        <f t="shared" si="0"/>
-        <v>71.3</v>
-      </c>
-      <c r="X40" s="8">
-        <f t="shared" si="0"/>
-        <v>71.3</v>
-      </c>
-      <c r="Y40" s="8">
-        <f t="shared" si="0"/>
-        <v>71.3</v>
-      </c>
-      <c r="Z40" s="8">
-        <f t="shared" si="0"/>
-        <v>71.3</v>
-      </c>
-      <c r="AA40" s="8">
-        <f t="shared" si="0"/>
-        <v>71.3</v>
-      </c>
-      <c r="AB40" s="8">
-        <f t="shared" si="0"/>
-        <v>71.3</v>
-      </c>
-      <c r="AC40" s="8">
-        <f t="shared" si="0"/>
-        <v>71.3</v>
-      </c>
-      <c r="AD40" s="8">
-        <f t="shared" si="0"/>
-        <v>71.3</v>
-      </c>
-      <c r="AE40" s="8">
-        <f t="shared" si="0"/>
-        <v>71.3</v>
-      </c>
-      <c r="AF40" s="8">
-        <f t="shared" si="0"/>
-        <v>71.3</v>
-      </c>
-      <c r="AG40" s="8">
-        <f t="shared" si="0"/>
-        <v>71.3</v>
-      </c>
-      <c r="AH40" s="8">
-        <f t="shared" si="0"/>
-        <v>71.3</v>
-      </c>
-      <c r="AI40" s="8">
-        <f t="shared" si="0"/>
-        <v>71.3</v>
-      </c>
-      <c r="AJ40" s="8">
-        <f t="shared" si="0"/>
-        <v>71.3</v>
-      </c>
-      <c r="AK40" s="8">
-        <f t="shared" si="0"/>
-        <v>71.3</v>
-      </c>
-      <c r="AL40" s="8">
-        <f>SUM(AL3:AL39)</f>
-        <v>71.3</v>
-      </c>
-      <c r="AM40" s="8">
-        <f>SUM(AM3:AM39)</f>
-        <v>71.3</v>
-      </c>
-      <c r="AN40" s="8">
-        <f>SUM(AN3:AN39)</f>
-        <v>71.3</v>
-      </c>
-      <c r="AO40" s="8">
-        <f>SUM(AO3:AO39)</f>
-        <v>71.3</v>
-      </c>
-      <c r="AP40" s="8">
-        <f>SUM(AP3:AP39)</f>
-        <v>71.3</v>
-      </c>
-    </row>
-    <row r="41" spans="3:42">
-      <c r="C41" t="str">
-        <f>IF(C40=52.3,"小",IF(C40=52.55,"中",IF(C40=55.55,"大","错误")))</f>
+    <row r="40" spans="3:43">
+      <c r="C40" t="str">
+        <f>IF(C39=52.3,"小",IF(C39=52.55,"中",IF(C39=55.55,"大","错误")))</f>
         <v>错误</v>
       </c>
-      <c r="D41" t="str">
-        <f>IF(D40=52.3,"小",IF(D40=52.55,"中",IF(D40=55.55,"大","错误")))</f>
+      <c r="D40" t="str">
+        <f>IF(D39=52.3,"小",IF(D39=52.55,"中",IF(D39=55.55,"大","错误")))</f>
         <v>错误</v>
       </c>
-      <c r="E41" t="str">
-        <f>IF(E40=52.3,"小",IF(E40=52.55,"中",IF(E40=55.55,"大","错误")))</f>
+      <c r="E40" t="str">
+        <f>IF(E39=52.3,"小",IF(E39=52.55,"中",IF(E39=55.55,"大","错误")))</f>
         <v>错误</v>
       </c>
-      <c r="F41" t="str">
-        <f>IF(F40=52.3,"小",IF(F40=52.55,"中",IF(F40=55.55,"大","错误")))</f>
+      <c r="F40" t="str">
+        <f>IF(F39=52.3,"小",IF(F39=52.55,"中",IF(F39=55.55,"大","错误")))</f>
         <v>错误</v>
       </c>
-      <c r="G41" t="str">
-        <f>IF(G40=52.3,"小",IF(G40=52.55,"中",IF(G40=55.55,"大","错误")))</f>
+      <c r="G40" t="str">
+        <f>IF(G39=52.3,"小",IF(G39=52.55,"中",IF(G39=55.55,"大","错误")))</f>
         <v>错误</v>
       </c>
-      <c r="H41" t="str">
-        <f t="shared" ref="H41:AM41" si="1">IF(H40=52.3,"小",IF(H40=52.55,"中",IF(H40=55.55,"大","错误")))</f>
+      <c r="H40" t="str">
+        <f t="shared" ref="H40:AP40" si="1">IF(H39=52.3,"小",IF(H39=52.55,"中",IF(H39=55.55,"大","错误")))</f>
         <v>错误</v>
       </c>
-      <c r="I41" t="str">
+      <c r="I40" t="str">
         <f t="shared" si="1"/>
         <v>错误</v>
       </c>
-      <c r="J41" t="str">
+      <c r="J40" t="str">
         <f t="shared" si="1"/>
         <v>错误</v>
       </c>
-      <c r="K41" t="str">
+      <c r="K40" t="str">
         <f t="shared" si="1"/>
         <v>错误</v>
       </c>
-      <c r="L41" t="str">
+      <c r="L40" t="str">
         <f t="shared" si="1"/>
         <v>错误</v>
       </c>
-      <c r="M41" t="str">
+      <c r="M40" t="str">
         <f t="shared" si="1"/>
         <v>错误</v>
       </c>
-      <c r="N41" t="str">
+      <c r="N40" t="str">
         <f t="shared" si="1"/>
         <v>错误</v>
       </c>
-      <c r="O41" t="str">
+      <c r="O40" t="str">
         <f t="shared" si="1"/>
         <v>错误</v>
       </c>
-      <c r="P41" t="str">
+      <c r="P40" t="str">
         <f t="shared" si="1"/>
         <v>错误</v>
       </c>
-      <c r="Q41" t="str">
+      <c r="Q40" t="str">
         <f t="shared" si="1"/>
         <v>错误</v>
       </c>
-      <c r="R41" t="str">
+      <c r="R40" t="str">
         <f t="shared" si="1"/>
         <v>错误</v>
       </c>
-      <c r="S41" t="str">
+      <c r="S40" t="str">
         <f t="shared" si="1"/>
         <v>错误</v>
       </c>
-      <c r="T41" t="str">
+      <c r="T40" t="str">
         <f t="shared" si="1"/>
         <v>错误</v>
       </c>
-      <c r="U41" t="str">
+      <c r="U40" t="str">
         <f t="shared" si="1"/>
         <v>错误</v>
       </c>
-      <c r="V41" t="str">
+      <c r="V40" t="str">
         <f t="shared" si="1"/>
         <v>错误</v>
       </c>
-      <c r="W41" t="str">
+      <c r="W40" t="str">
         <f t="shared" si="1"/>
         <v>错误</v>
       </c>
-      <c r="X41" t="str">
+      <c r="X40" t="str">
         <f t="shared" si="1"/>
         <v>错误</v>
       </c>
-      <c r="Y41" t="str">
+      <c r="Y40" t="str">
         <f t="shared" si="1"/>
         <v>错误</v>
       </c>
-      <c r="Z41" t="str">
+      <c r="Z40" t="str">
         <f t="shared" si="1"/>
         <v>错误</v>
       </c>
-      <c r="AA41" t="str">
+      <c r="AA40" t="str">
         <f t="shared" si="1"/>
         <v>错误</v>
       </c>
-      <c r="AB41" t="str">
+      <c r="AB40" t="str">
         <f t="shared" si="1"/>
         <v>错误</v>
       </c>
-      <c r="AC41" t="str">
+      <c r="AC40" t="str">
         <f t="shared" si="1"/>
         <v>错误</v>
       </c>
-      <c r="AD41" t="str">
+      <c r="AD40" t="str">
         <f t="shared" si="1"/>
         <v>错误</v>
       </c>
-      <c r="AE41" t="str">
+      <c r="AE40" t="str">
         <f t="shared" si="1"/>
         <v>错误</v>
       </c>
-      <c r="AF41" t="str">
+      <c r="AF40" t="str">
         <f t="shared" si="1"/>
         <v>错误</v>
       </c>
-      <c r="AG41" t="str">
+      <c r="AG40" t="str">
         <f t="shared" si="1"/>
         <v>错误</v>
       </c>
-      <c r="AH41" t="str">
+      <c r="AH40" t="str">
         <f t="shared" si="1"/>
         <v>错误</v>
       </c>
-      <c r="AI41" t="str">
+      <c r="AI40" t="str">
         <f t="shared" si="1"/>
         <v>错误</v>
       </c>
-      <c r="AJ41" t="str">
+      <c r="AJ40" t="str">
         <f t="shared" si="1"/>
         <v>错误</v>
       </c>
-      <c r="AK41" t="str">
-        <f t="shared" si="1"/>
+      <c r="AK40" t="str">
+        <f>IF(AK39=52.3,"小",IF(AK39=52.55,"中",IF(AK39=55.55,"大","错误")))</f>
         <v>错误</v>
       </c>
-      <c r="AL41" t="str">
-        <f>IF(AL40=52.3,"小",IF(AL40=52.55,"中",IF(AL40=55.55,"大","错误")))</f>
+      <c r="AL40" t="str">
+        <f>IF(AL39=52.3,"小",IF(AL39=52.55,"中",IF(AL39=55.55,"大","错误")))</f>
         <v>错误</v>
       </c>
-      <c r="AM41" t="str">
-        <f>IF(AM40=52.3,"小",IF(AM40=52.55,"中",IF(AM40=55.55,"大","错误")))</f>
+      <c r="AM40" t="str">
+        <f>IF(AM39=52.3,"小",IF(AM39=52.55,"中",IF(AM39=55.55,"大","错误")))</f>
         <v>错误</v>
       </c>
-      <c r="AN41" t="str">
-        <f>IF(AN40=52.3,"小",IF(AN40=52.55,"中",IF(AN40=55.55,"大","错误")))</f>
+      <c r="AN40" t="str">
+        <f>IF(AN39=52.3,"小",IF(AN39=52.55,"中",IF(AN39=55.55,"大","错误")))</f>
         <v>错误</v>
       </c>
-      <c r="AO41" t="str">
-        <f>IF(AO40=52.3,"小",IF(AO40=52.55,"中",IF(AO40=55.55,"大","错误")))</f>
+      <c r="AO40" t="str">
+        <f>IF(AO39=52.3,"小",IF(AO39=52.55,"中",IF(AO39=55.55,"大","错误")))</f>
         <v>错误</v>
       </c>
-      <c r="AP41" t="str">
-        <f>IF(AP40=52.3,"小",IF(AP40=52.55,"中",IF(AP40=55.55,"大","错误")))</f>
+      <c r="AP40" t="str">
+        <f>IF(AP39=52.3,"小",IF(AP39=52.55,"中",IF(AP39=55.55,"大","错误")))</f>
+        <v>错误</v>
+      </c>
+      <c r="AQ40" t="str">
+        <f>IF(AQ39=52.3,"小",IF(AQ39=52.55,"中",IF(AQ39=55.55,"大","错误")))</f>
         <v>错误</v>
       </c>
     </row>
